--- a/게임 기획파일/나만의 삼국지 시스템기획_201124_ver.0.1.xlsx
+++ b/게임 기획파일/나만의 삼국지 시스템기획_201124_ver.0.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\나만의 삼\TeamProject1\게임 기획파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF33D908-08D8-47C4-B987-7493F6ECE4AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A6EFFC-D182-4465-A5FD-FF3C7F909478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="120" windowWidth="14580" windowHeight="9945" tabRatio="599" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전체 시스템" sheetId="1" r:id="rId1"/>
@@ -3869,7 +3869,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="524">
   <si>
     <t>1000나유타</t>
   </si>
@@ -6252,6 +6252,98 @@
   <si>
     <t>파촉</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon_21</t>
+  </si>
+  <si>
+    <t>weapon_22</t>
+  </si>
+  <si>
+    <t>weapon_23</t>
+  </si>
+  <si>
+    <t>weapon_24</t>
+  </si>
+  <si>
+    <t>weapon_25</t>
+  </si>
+  <si>
+    <t>weapon_26</t>
+  </si>
+  <si>
+    <t>weapon_27</t>
+  </si>
+  <si>
+    <t>weapon_28</t>
+  </si>
+  <si>
+    <t>팔괘적도</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>철파참</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마살창</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>천격창</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍날근</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>두근두근</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training_21</t>
+  </si>
+  <si>
+    <t>Training_22</t>
+  </si>
+  <si>
+    <t>Training_23</t>
+  </si>
+  <si>
+    <t>Training_24</t>
+  </si>
+  <si>
+    <t>캠프 구축</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>군사 훈련</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>산적 토벌</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 건설</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>187618294121250000000000</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>422141161772812000000000</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2849452841966480000000000</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>25645075577698300000000000</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7002,7 +7094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -7282,9 +7374,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7360,6 +7449,48 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7447,6 +7578,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7477,18 +7611,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7537,6 +7671,30 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7563,60 +7721,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9428,28 +9532,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="134" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
@@ -9466,14 +9570,14 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="143" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="131"/>
+      <c r="C6" s="144"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="132"/>
-      <c r="C7" s="133"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="146"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
@@ -9492,16 +9596,16 @@
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="143" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="131"/>
+      <c r="E12" s="144"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="11"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="146"/>
       <c r="F13" s="12"/>
       <c r="G13" s="21"/>
     </row>
@@ -9524,7 +9628,7 @@
     <row r="15" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="21"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="120" t="s">
+      <c r="H15" s="133" t="s">
         <v>250</v>
       </c>
       <c r="I15" s="50" t="s">
@@ -9541,11 +9645,11 @@
       <c r="B16" s="8"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="123" t="s">
+      <c r="H16" s="133"/>
+      <c r="I16" s="136" t="s">
         <v>272</v>
       </c>
-      <c r="J16" s="125" t="s">
+      <c r="J16" s="138" t="s">
         <v>33</v>
       </c>
       <c r="K16" s="22" t="s">
@@ -9556,15 +9660,15 @@
       <c r="B17" s="8"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="126"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="139"/>
       <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="120"/>
+      <c r="H18" s="133"/>
       <c r="I18" s="50" t="s">
         <v>225</v>
       </c>
@@ -9575,14 +9679,14 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="96" t="s">
+      <c r="H19" s="133"/>
+      <c r="I19" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="J19" s="107" t="s">
+      <c r="J19" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="K19" s="96" t="s">
+      <c r="K19" s="95" t="s">
         <v>43</v>
       </c>
       <c r="L19" s="77"/>
@@ -9607,16 +9711,16 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C26" s="9"/>
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="143" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="131"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C27" s="12"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="133"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="146"/>
       <c r="F27" s="12"/>
       <c r="G27" s="21"/>
     </row>
@@ -9639,7 +9743,7 @@
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F29" s="4"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="127" t="s">
+      <c r="H29" s="140" t="s">
         <v>295</v>
       </c>
       <c r="I29" s="22" t="s">
@@ -9655,7 +9759,7 @@
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="128"/>
+      <c r="H30" s="141"/>
       <c r="I30" s="22" t="s">
         <v>246</v>
       </c>
@@ -9668,7 +9772,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G31" s="4"/>
-      <c r="H31" s="128"/>
+      <c r="H31" s="141"/>
       <c r="I31" s="22" t="s">
         <v>241</v>
       </c>
@@ -9681,7 +9785,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G32" s="4"/>
-      <c r="H32" s="128"/>
+      <c r="H32" s="141"/>
       <c r="I32" s="22" t="s">
         <v>297</v>
       </c>
@@ -9693,42 +9797,42 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="H33" s="129"/>
-      <c r="I33" s="96" t="s">
+      <c r="H33" s="142"/>
+      <c r="I33" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="J33" s="107" t="s">
+      <c r="J33" s="106" t="s">
         <v>232</v>
       </c>
-      <c r="K33" s="96" t="s">
+      <c r="K33" s="95" t="s">
         <v>293</v>
       </c>
       <c r="L33" s="77"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="29"/>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="134" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="122"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="122"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="122"/>
-      <c r="T35" s="122"/>
-      <c r="U35" s="122"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="135"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="135"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="135"/>
+      <c r="P35" s="135"/>
+      <c r="Q35" s="135"/>
+      <c r="R35" s="135"/>
+      <c r="S35" s="135"/>
+      <c r="T35" s="135"/>
+      <c r="U35" s="135"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B37" s="63" t="s">
@@ -9939,16 +10043,16 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B46" s="119" t="s">
+      <c r="B46" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="132"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10099,7 +10203,7 @@
       <c r="A5" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="120" t="s">
         <v>402</v>
       </c>
       <c r="C5" s="38" t="s">
@@ -10108,7 +10212,7 @@
       <c r="D5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="190" t="s">
+      <c r="E5" s="120" t="s">
         <v>433</v>
       </c>
       <c r="F5" s="16">
@@ -10131,7 +10235,7 @@
       <c r="D6" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="E6" s="190" t="s">
+      <c r="E6" s="120" t="s">
         <v>434</v>
       </c>
       <c r="F6" s="18">
@@ -10154,7 +10258,7 @@
       <c r="D7" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="E7" s="190" t="s">
+      <c r="E7" s="120" t="s">
         <v>435</v>
       </c>
       <c r="F7" s="18">
@@ -10683,7 +10787,7 @@
       <c r="E2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="93" t="s">
         <v>460</v>
       </c>
       <c r="G2" s="1">
@@ -10692,7 +10796,7 @@
       <c r="H2" s="81">
         <v>90600</v>
       </c>
-      <c r="I2" s="102" t="s">
+      <c r="I2" s="101" t="s">
         <v>461</v>
       </c>
     </row>
@@ -10700,7 +10804,7 @@
       <c r="A3" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="94" t="s">
         <v>401</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -10712,7 +10816,7 @@
       <c r="E3" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="93" t="s">
         <v>460</v>
       </c>
       <c r="G3" s="1">
@@ -10721,7 +10825,7 @@
       <c r="H3" s="81">
         <v>90600</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="I3" s="101" t="s">
         <v>462</v>
       </c>
     </row>
@@ -10741,7 +10845,7 @@
       <c r="E4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="93" t="s">
         <v>460</v>
       </c>
       <c r="G4" s="1">
@@ -10750,7 +10854,7 @@
       <c r="H4" s="81">
         <v>90600</v>
       </c>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="101" t="s">
         <v>463</v>
       </c>
     </row>
@@ -10758,7 +10862,7 @@
       <c r="A5" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="94" t="s">
         <v>402</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -10770,7 +10874,7 @@
       <c r="E5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="93" t="s">
         <v>460</v>
       </c>
       <c r="G5" s="1">
@@ -10779,7 +10883,7 @@
       <c r="H5" s="81">
         <v>90600</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="101" t="s">
         <v>464</v>
       </c>
     </row>
@@ -10799,7 +10903,7 @@
       <c r="E6" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="93" t="s">
         <v>460</v>
       </c>
       <c r="G6" s="1">
@@ -10808,7 +10912,7 @@
       <c r="H6" s="81">
         <v>90600</v>
       </c>
-      <c r="I6" s="102" t="s">
+      <c r="I6" s="101" t="s">
         <v>465</v>
       </c>
     </row>
@@ -10825,10 +10929,10 @@
       <c r="D7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="94" t="s">
         <v>403</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="93" t="s">
         <v>460</v>
       </c>
       <c r="G7" s="1">
@@ -10837,7 +10941,7 @@
       <c r="H7" s="81">
         <v>90600</v>
       </c>
-      <c r="I7" s="102" t="s">
+      <c r="I7" s="101" t="s">
         <v>466</v>
       </c>
     </row>
@@ -10857,7 +10961,7 @@
       <c r="E8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="93" t="s">
         <v>460</v>
       </c>
       <c r="G8" s="1">
@@ -10866,7 +10970,7 @@
       <c r="H8" s="81">
         <v>90600</v>
       </c>
-      <c r="I8" s="102" t="s">
+      <c r="I8" s="101" t="s">
         <v>467</v>
       </c>
     </row>
@@ -11230,7 +11334,7 @@
       <c r="D2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="94" t="s">
         <v>436</v>
       </c>
       <c r="F2" s="16">
@@ -11250,7 +11354,7 @@
       <c r="D3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="94" t="s">
         <v>437</v>
       </c>
       <c r="F3" s="79">
@@ -11270,7 +11374,7 @@
       <c r="D4" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="94" t="s">
         <v>438</v>
       </c>
       <c r="F4" s="16">
@@ -11290,7 +11394,7 @@
       <c r="D5" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="103" t="s">
         <v>439</v>
       </c>
       <c r="F5" s="79">
@@ -11301,7 +11405,7 @@
       <c r="A6" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="94" t="s">
         <v>393</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -11310,7 +11414,7 @@
       <c r="D6" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="94" t="s">
         <v>440</v>
       </c>
       <c r="F6" s="16">
@@ -11330,7 +11434,7 @@
       <c r="D7" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="103" t="s">
         <v>439</v>
       </c>
       <c r="F7" s="79">
@@ -11350,7 +11454,7 @@
       <c r="D8" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="94" t="s">
         <v>441</v>
       </c>
       <c r="F8" s="16">
@@ -11390,7 +11494,7 @@
       <c r="D10" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="94" t="s">
         <v>442</v>
       </c>
       <c r="F10" s="16">
@@ -11410,7 +11514,7 @@
       <c r="D11" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="103" t="s">
         <v>440</v>
       </c>
       <c r="F11" s="79">
@@ -11430,7 +11534,7 @@
       <c r="D12" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="94" t="s">
         <v>443</v>
       </c>
       <c r="F12" s="16">
@@ -11450,7 +11554,7 @@
       <c r="D13" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E13" s="104" t="s">
+      <c r="E13" s="103" t="s">
         <v>443</v>
       </c>
       <c r="F13" s="79">
@@ -11470,7 +11574,7 @@
       <c r="D14" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="94" t="s">
         <v>443</v>
       </c>
       <c r="F14" s="16">
@@ -11481,7 +11585,7 @@
       <c r="A15" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="94" t="s">
         <v>392</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -11490,7 +11594,7 @@
       <c r="D15" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E15" s="104" t="s">
+      <c r="E15" s="103" t="s">
         <v>444</v>
       </c>
       <c r="F15" s="79">
@@ -11510,7 +11614,7 @@
       <c r="D16" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E16" s="95" t="s">
+      <c r="E16" s="94" t="s">
         <v>438</v>
       </c>
       <c r="F16" s="16">
@@ -11530,7 +11634,7 @@
       <c r="D17" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="103" t="s">
         <v>445</v>
       </c>
       <c r="F17" s="79">
@@ -11569,72 +11673,72 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="99" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="98" t="s">
         <v>397</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="99" t="s">
         <v>398</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="98" t="s">
         <v>397</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="99" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="200" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="180"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="202"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="181"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="183"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="205"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="181"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="183"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="205"/>
     </row>
     <row r="7" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="184"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="186"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11696,7 +11800,7 @@
       <c r="D2" s="88" t="s">
         <v>427</v>
       </c>
-      <c r="E2" s="96">
+      <c r="E2" s="95">
         <v>200</v>
       </c>
     </row>
@@ -11713,7 +11817,7 @@
       <c r="D3" s="88" t="s">
         <v>428</v>
       </c>
-      <c r="E3" s="96">
+      <c r="E3" s="95">
         <v>400</v>
       </c>
     </row>
@@ -11730,7 +11834,7 @@
       <c r="D4" s="88" t="s">
         <v>429</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E4" s="95">
         <v>600</v>
       </c>
     </row>
@@ -11747,7 +11851,7 @@
       <c r="D5" s="88" t="s">
         <v>430</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="95">
         <v>800</v>
       </c>
     </row>
@@ -11764,7 +11868,7 @@
       <c r="D6" s="88" t="s">
         <v>431</v>
       </c>
-      <c r="E6" s="96">
+      <c r="E6" s="95">
         <v>1000</v>
       </c>
     </row>
@@ -11826,7 +11930,7 @@
       <c r="D2" s="87" t="s">
         <v>432</v>
       </c>
-      <c r="E2" s="96">
+      <c r="E2" s="95">
         <v>50</v>
       </c>
     </row>
@@ -11843,7 +11947,7 @@
       <c r="D3" s="87" t="s">
         <v>379</v>
       </c>
-      <c r="E3" s="96">
+      <c r="E3" s="95">
         <v>70</v>
       </c>
     </row>
@@ -11860,7 +11964,7 @@
       <c r="D4" s="87" t="s">
         <v>380</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E4" s="95">
         <v>150</v>
       </c>
     </row>
@@ -11877,7 +11981,7 @@
       <c r="D5" s="87" t="s">
         <v>381</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="95">
         <v>220</v>
       </c>
     </row>
@@ -11894,7 +11998,7 @@
       <c r="D6" s="87" t="s">
         <v>382</v>
       </c>
-      <c r="E6" s="96">
+      <c r="E6" s="95">
         <v>320</v>
       </c>
     </row>
@@ -11911,7 +12015,7 @@
       <c r="D7" s="87" t="s">
         <v>383</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="95">
         <v>470</v>
       </c>
     </row>
@@ -11928,7 +12032,7 @@
       <c r="D8" s="87" t="s">
         <v>384</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="95">
         <v>560</v>
       </c>
     </row>
@@ -11945,7 +12049,7 @@
       <c r="D9" s="87" t="s">
         <v>385</v>
       </c>
-      <c r="E9" s="96">
+      <c r="E9" s="95">
         <v>620</v>
       </c>
     </row>
@@ -11962,7 +12066,7 @@
       <c r="D10" s="87" t="s">
         <v>386</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="95">
         <v>650</v>
       </c>
     </row>
@@ -11979,7 +12083,7 @@
       <c r="D11" s="87" t="s">
         <v>387</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E11" s="95">
         <v>700</v>
       </c>
     </row>
@@ -12011,252 +12115,252 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="147" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="136"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="139"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4" s="137"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138"/>
-      <c r="T4" s="139"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="152"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="138"/>
-      <c r="T5" s="139"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="152"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="139"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="151"/>
+      <c r="T6" s="152"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="137"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="139"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="152"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B8" s="137"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="139"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="151"/>
+      <c r="T8" s="152"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B9" s="137"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="139"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="152"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B10" s="137"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="139"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="151"/>
+      <c r="T10" s="152"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="137"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="139"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="152"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B12" s="140"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="141"/>
-      <c r="R12" s="141"/>
-      <c r="S12" s="141"/>
-      <c r="T12" s="142"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="154"/>
+      <c r="T12" s="155"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="188" t="s">
         <v>390</v>
       </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="174"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="188"/>
+      <c r="L15" s="188"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16" s="75" t="s">
@@ -13343,7 +13447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE415F15-5DDC-45DF-ADA6-F2DD7BBFC81D}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -13357,24 +13461,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="123" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="123" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="201" t="s">
+      <c r="C1" s="123" t="s">
         <v>487</v>
       </c>
-      <c r="D1" s="202" t="s">
+      <c r="D1" s="124" t="s">
         <v>488</v>
       </c>
-      <c r="E1" s="202" t="s">
+      <c r="E1" s="124" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="125" t="s">
         <v>490</v>
       </c>
       <c r="B2" s="81">
@@ -13383,13 +13487,13 @@
       <c r="C2" s="81">
         <v>10</v>
       </c>
-      <c r="D2" s="204">
+      <c r="D2" s="126">
         <v>5000</v>
       </c>
-      <c r="E2" s="203"/>
+      <c r="E2" s="125"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="125" t="s">
         <v>491</v>
       </c>
       <c r="B3" s="81">
@@ -13398,14 +13502,14 @@
       <c r="C3" s="81">
         <v>45</v>
       </c>
-      <c r="D3" s="204">
+      <c r="D3" s="126">
         <f>D2*3</f>
         <v>15000</v>
       </c>
       <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="125" t="s">
         <v>492</v>
       </c>
       <c r="B4" s="81">
@@ -13414,14 +13518,14 @@
       <c r="C4" s="81">
         <v>202</v>
       </c>
-      <c r="D4" s="204">
+      <c r="D4" s="126">
         <f>D3*4</f>
         <v>60000</v>
       </c>
       <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="125" t="s">
         <v>493</v>
       </c>
       <c r="B5" s="81">
@@ -13430,14 +13534,14 @@
       <c r="C5" s="81">
         <v>911</v>
       </c>
-      <c r="D5" s="204">
+      <c r="D5" s="126">
         <f>D4*5</f>
         <v>300000</v>
       </c>
       <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="203" t="s">
+      <c r="A6" s="125" t="s">
         <v>494</v>
       </c>
       <c r="B6" s="81">
@@ -13446,14 +13550,14 @@
       <c r="C6" s="81">
         <v>4100</v>
       </c>
-      <c r="D6" s="204">
+      <c r="D6" s="126">
         <f>D5*6</f>
         <v>1800000</v>
       </c>
       <c r="E6" s="81"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="125" t="s">
         <v>495</v>
       </c>
       <c r="B7" s="81">
@@ -13462,14 +13566,14 @@
       <c r="C7" s="81">
         <v>18452</v>
       </c>
-      <c r="D7" s="204">
+      <c r="D7" s="126">
         <f>D6*7</f>
         <v>12600000</v>
       </c>
       <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="203" t="s">
+      <c r="A8" s="125" t="s">
         <v>496</v>
       </c>
       <c r="B8" s="81">
@@ -13478,14 +13582,14 @@
       <c r="C8" s="81">
         <v>83037</v>
       </c>
-      <c r="D8" s="204">
+      <c r="D8" s="126">
         <f>D7*8</f>
         <v>100800000</v>
       </c>
       <c r="E8" s="81"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="125" t="s">
         <v>497</v>
       </c>
       <c r="B9" s="81">
@@ -13494,7 +13598,7 @@
       <c r="C9" s="81">
         <v>373669</v>
       </c>
-      <c r="D9" s="204">
+      <c r="D9" s="126">
         <f>D8*9</f>
         <v>907200000</v>
       </c>
@@ -13821,7 +13925,7 @@
       <c r="D15" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="95" t="s">
+      <c r="E15" s="94" t="s">
         <v>392</v>
       </c>
       <c r="F15" s="17">
@@ -13903,41 +14007,41 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="147" t="s">
         <v>484</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="136"/>
-      <c r="O2" s="98" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="149"/>
+      <c r="O2" s="97" t="s">
         <v>394</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="P2" s="97" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="139"/>
-      <c r="O3" s="97" t="s">
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="152"/>
+      <c r="O3" s="96" t="s">
         <v>469</v>
       </c>
       <c r="P3" s="38" t="s">
@@ -13945,19 +14049,19 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="137"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="139"/>
-      <c r="O4" s="97" t="s">
+      <c r="B4" s="150"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="152"/>
+      <c r="O4" s="96" t="s">
         <v>470</v>
       </c>
       <c r="P4" s="38" t="s">
@@ -13965,19 +14069,19 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="139"/>
-      <c r="O5" s="97" t="s">
+      <c r="B5" s="150"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="152"/>
+      <c r="O5" s="96" t="s">
         <v>471</v>
       </c>
       <c r="P5" s="38" t="s">
@@ -13985,19 +14089,19 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="140"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="142"/>
-      <c r="O6" s="97" t="s">
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="155"/>
+      <c r="O6" s="96" t="s">
         <v>472</v>
       </c>
       <c r="P6" s="38" t="s">
@@ -14012,7 +14116,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="O7" s="97" t="s">
+      <c r="O7" s="96" t="s">
         <v>473</v>
       </c>
       <c r="P7" s="38" t="s">
@@ -14027,7 +14131,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="O8" s="97" t="s">
+      <c r="O8" s="96" t="s">
         <v>474</v>
       </c>
       <c r="P8" s="38" t="s">
@@ -14040,7 +14144,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="O9" s="97" t="s">
+      <c r="O9" s="96" t="s">
         <v>475</v>
       </c>
       <c r="P9" s="38" t="s">
@@ -14053,7 +14157,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="O10" s="97" t="s">
+      <c r="O10" s="96" t="s">
         <v>476</v>
       </c>
       <c r="P10" s="38" t="s">
@@ -14065,7 +14169,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="O11" s="97" t="s">
+      <c r="O11" s="96" t="s">
         <v>477</v>
       </c>
       <c r="P11" s="38" t="s">
@@ -14073,7 +14177,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O12" s="97" t="s">
+      <c r="O12" s="96" t="s">
         <v>478</v>
       </c>
       <c r="P12" s="38" t="s">
@@ -14081,7 +14185,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O13" s="97" t="s">
+      <c r="O13" s="96" t="s">
         <v>479</v>
       </c>
       <c r="P13" s="38" t="s">
@@ -14089,7 +14193,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O14" s="97" t="s">
+      <c r="O14" s="96" t="s">
         <v>480</v>
       </c>
       <c r="P14" s="38" t="s">
@@ -14097,7 +14201,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O15" s="97" t="s">
+      <c r="O15" s="96" t="s">
         <v>481</v>
       </c>
       <c r="P15" s="38" t="s">
@@ -14105,7 +14209,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O16" s="97" t="s">
+      <c r="O16" s="96" t="s">
         <v>482</v>
       </c>
       <c r="P16" s="38" t="s">
@@ -14113,7 +14217,7 @@
       </c>
     </row>
     <row r="17" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O17" s="97" t="s">
+      <c r="O17" s="96" t="s">
         <v>483</v>
       </c>
       <c r="P17" s="38" t="s">
@@ -14168,145 +14272,145 @@
     </row>
     <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="147" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="136"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="149"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="139"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="152"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="139"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="152"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="139"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="152"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="139"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="152"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="139"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="152"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="152"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="139"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="152"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="139"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="142"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="155"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -14355,24 +14459,24 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="147" t="s">
+      <c r="B15" s="160" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="147"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="160"/>
       <c r="M15" s="4"/>
-      <c r="U15" s="145" t="s">
+      <c r="U15" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="V15" s="146"/>
+      <c r="V15" s="159"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
@@ -14408,10 +14512,10 @@
         <v>9</v>
       </c>
       <c r="M16" s="4"/>
-      <c r="U16" s="143">
+      <c r="U16" s="156">
         <v>1.1200000000000001</v>
       </c>
-      <c r="V16" s="144"/>
+      <c r="V16" s="157"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
@@ -14893,10 +14997,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14969,7 +15073,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E3" s="30">
-        <f>E2*4</f>
         <v>40</v>
       </c>
       <c r="F3" s="33">
@@ -14990,7 +15093,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E4" s="30">
-        <f>E3*5</f>
         <v>200</v>
       </c>
       <c r="F4" s="33">
@@ -15011,7 +15113,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E5" s="30">
-        <f>E4*6</f>
         <v>1200</v>
       </c>
       <c r="F5" s="33">
@@ -15032,7 +15133,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E6" s="30">
-        <f>E5*7</f>
         <v>8400</v>
       </c>
       <c r="F6" s="33">
@@ -15053,7 +15153,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E7" s="30">
-        <f>E6*8</f>
         <v>67200</v>
       </c>
       <c r="F7" s="33">
@@ -15074,7 +15173,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E8" s="30">
-        <f>E7*9</f>
         <v>604800</v>
       </c>
       <c r="F8" s="33">
@@ -15095,7 +15193,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E9" s="30">
-        <f>E8*10</f>
         <v>6048000</v>
       </c>
       <c r="F9" s="33">
@@ -15116,7 +15213,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E10" s="30">
-        <f>E9*11</f>
         <v>66528000</v>
       </c>
       <c r="F10" s="33">
@@ -15137,7 +15233,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E11" s="30">
-        <f>E10*12</f>
         <v>798336000</v>
       </c>
       <c r="F11" s="33">
@@ -15158,7 +15253,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E12" s="30">
-        <f>E11*13</f>
         <v>10378368000</v>
       </c>
       <c r="F12" s="33">
@@ -15179,7 +15273,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E13" s="30">
-        <f>E12*14</f>
         <v>145297152000</v>
       </c>
       <c r="F13" s="33">
@@ -15200,7 +15293,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E14" s="30">
-        <f>E13*15</f>
         <v>2179457280000</v>
       </c>
       <c r="F14" s="33">
@@ -15221,7 +15313,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E15" s="30">
-        <f>E14*16</f>
         <v>34871316480000</v>
       </c>
       <c r="F15" s="33">
@@ -15242,7 +15333,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E16" s="30">
-        <f>E15*17</f>
         <v>592812380160000</v>
       </c>
       <c r="F16" s="33">
@@ -15263,7 +15353,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E17" s="30">
-        <f>E16*18</f>
         <v>1.067062284288E+16</v>
       </c>
       <c r="F17" s="33">
@@ -15284,7 +15373,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E18" s="30">
-        <f>E17*19</f>
         <v>2.0274183401472E+17</v>
       </c>
       <c r="F18" s="33">
@@ -15305,7 +15393,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E19" s="30">
-        <f>E18*20</f>
         <v>4.0548366802944E+18</v>
       </c>
       <c r="F19" s="33">
@@ -15326,7 +15413,6 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E20" s="30">
-        <f>E19*21</f>
         <v>8.51515702861824E+19</v>
       </c>
       <c r="F20" s="33">
@@ -15347,10 +15433,89 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E21" s="30">
-        <f>E20*22</f>
         <v>1.8733345462960128E+21</v>
       </c>
       <c r="F21" s="33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="B22" s="120" t="s">
+        <v>516</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="59">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E22" s="30">
+        <v>4.3086694564808297E+22</v>
+      </c>
+      <c r="F22" s="33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="B23" s="120" t="s">
+        <v>517</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="59">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E23" s="30">
+        <v>1.0340806695553992E+24</v>
+      </c>
+      <c r="F23" s="33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="B24" s="120" t="s">
+        <v>518</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="59">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E24" s="30">
+        <v>2.5852016738884982E+25</v>
+      </c>
+      <c r="F24" s="33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="B25" s="120" t="s">
+        <v>519</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="59">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E25" s="30">
+        <v>6.7215243521100958E+26</v>
+      </c>
+      <c r="F25" s="33">
         <v>1000</v>
       </c>
     </row>
@@ -15367,10 +15532,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15379,7 +15544,7 @@
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -15414,7 +15579,7 @@
       <c r="D2" s="27">
         <v>1</v>
       </c>
-      <c r="E2" s="187">
+      <c r="E2" s="118">
         <v>2</v>
       </c>
     </row>
@@ -15431,7 +15596,7 @@
       <c r="D3" s="27">
         <v>2</v>
       </c>
-      <c r="E3" s="187">
+      <c r="E3" s="118">
         <v>18</v>
       </c>
     </row>
@@ -15448,7 +15613,7 @@
       <c r="D4" s="27">
         <v>5</v>
       </c>
-      <c r="E4" s="188" t="s">
+      <c r="E4" s="119" t="s">
         <v>406</v>
       </c>
     </row>
@@ -15465,7 +15630,7 @@
       <c r="D5" s="27">
         <v>10</v>
       </c>
-      <c r="E5" s="187">
+      <c r="E5" s="118">
         <v>1458</v>
       </c>
     </row>
@@ -15482,7 +15647,7 @@
       <c r="D6" s="27">
         <v>20</v>
       </c>
-      <c r="E6" s="187">
+      <c r="E6" s="118">
         <v>13122</v>
       </c>
     </row>
@@ -15499,7 +15664,7 @@
       <c r="D7" s="27">
         <v>40</v>
       </c>
-      <c r="E7" s="187">
+      <c r="E7" s="118">
         <v>118098</v>
       </c>
     </row>
@@ -15516,7 +15681,7 @@
       <c r="D8" s="27">
         <v>60</v>
       </c>
-      <c r="E8" s="187">
+      <c r="E8" s="118">
         <v>1062882</v>
       </c>
     </row>
@@ -15533,7 +15698,7 @@
       <c r="D9" s="27">
         <v>120</v>
       </c>
-      <c r="E9" s="187">
+      <c r="E9" s="118">
         <v>9565938</v>
       </c>
     </row>
@@ -15550,7 +15715,7 @@
       <c r="D10" s="27">
         <v>240</v>
       </c>
-      <c r="E10" s="187">
+      <c r="E10" s="118">
         <v>86093442</v>
       </c>
     </row>
@@ -15567,7 +15732,7 @@
       <c r="D11" s="27">
         <v>30</v>
       </c>
-      <c r="E11" s="188" t="s">
+      <c r="E11" s="119" t="s">
         <v>407</v>
       </c>
     </row>
@@ -15584,7 +15749,7 @@
       <c r="D12" s="27">
         <v>480</v>
       </c>
-      <c r="E12" s="188" t="s">
+      <c r="E12" s="119" t="s">
         <v>408</v>
       </c>
     </row>
@@ -15601,7 +15766,7 @@
       <c r="D13" s="27">
         <v>20</v>
       </c>
-      <c r="E13" s="188" t="s">
+      <c r="E13" s="119" t="s">
         <v>409</v>
       </c>
     </row>
@@ -15618,7 +15783,7 @@
       <c r="D14" s="27">
         <v>35</v>
       </c>
-      <c r="E14" s="188" t="s">
+      <c r="E14" s="119" t="s">
         <v>411</v>
       </c>
     </row>
@@ -15635,7 +15800,7 @@
       <c r="D15" s="27">
         <v>30</v>
       </c>
-      <c r="E15" s="188" t="s">
+      <c r="E15" s="119" t="s">
         <v>410</v>
       </c>
     </row>
@@ -15652,7 +15817,7 @@
       <c r="D16" s="27">
         <v>10</v>
       </c>
-      <c r="E16" s="188" t="s">
+      <c r="E16" s="119" t="s">
         <v>412</v>
       </c>
     </row>
@@ -15669,7 +15834,7 @@
       <c r="D17" s="27">
         <v>5</v>
       </c>
-      <c r="E17" s="188" t="s">
+      <c r="E17" s="119" t="s">
         <v>413</v>
       </c>
     </row>
@@ -15686,7 +15851,7 @@
       <c r="D18" s="27">
         <v>50</v>
       </c>
-      <c r="E18" s="188" t="s">
+      <c r="E18" s="119" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15703,7 +15868,7 @@
       <c r="D19" s="27">
         <v>100</v>
       </c>
-      <c r="E19" s="188" t="s">
+      <c r="E19" s="119" t="s">
         <v>415</v>
       </c>
     </row>
@@ -15720,7 +15885,7 @@
       <c r="D20" s="27">
         <v>200</v>
       </c>
-      <c r="E20" s="188" t="s">
+      <c r="E20" s="119" t="s">
         <v>416</v>
       </c>
     </row>
@@ -15737,12 +15902,77 @@
       <c r="D21" s="27">
         <v>300</v>
       </c>
-      <c r="E21" s="188" t="s">
+      <c r="E21" s="131" t="s">
         <v>417</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="B22" s="120" t="s">
+        <v>516</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="9">
+        <v>200</v>
+      </c>
+      <c r="E22" s="131" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="B23" s="120" t="s">
+        <v>517</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="9">
+        <v>100</v>
+      </c>
+      <c r="E23" s="130" t="s">
+        <v>521</v>
+      </c>
+    </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="93"/>
+      <c r="A24" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="B24" s="120" t="s">
+        <v>518</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="9">
+        <v>150</v>
+      </c>
+      <c r="E24" s="130" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="B25" s="120" t="s">
+        <v>519</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="9">
+        <v>300</v>
+      </c>
+      <c r="E25" s="130" t="s">
+        <v>523</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -15781,36 +16011,36 @@
       <c r="H1" s="53"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="161" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="163"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="150"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="152"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="166"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="153"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="155"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="169"/>
       <c r="G5" s="53"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -15826,7 +16056,7 @@
       <c r="F8" s="53"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="172" t="s">
         <v>274</v>
       </c>
       <c r="C9" s="51" t="s">
@@ -15843,58 +16073,58 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="159"/>
-      <c r="C10" s="156" t="s">
+      <c r="B10" s="172"/>
+      <c r="C10" s="170" t="s">
         <v>306</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="157" t="s">
+      <c r="E10" s="171" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="158" t="s">
+      <c r="F10" s="175" t="s">
         <v>154</v>
       </c>
       <c r="G10" s="53"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="159"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="112" t="s">
+      <c r="B11" s="172"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="111" t="s">
         <v>418</v>
       </c>
-      <c r="E11" s="157"/>
-      <c r="F11" s="158"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="175"/>
       <c r="G11" s="53"/>
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="159"/>
-      <c r="C12" s="156" t="s">
+      <c r="B12" s="172"/>
+      <c r="C12" s="170" t="s">
         <v>330</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="110" t="s">
         <v>404</v>
       </c>
-      <c r="E12" s="157" t="s">
+      <c r="E12" s="171" t="s">
         <v>420</v>
       </c>
-      <c r="F12" s="158" t="s">
+      <c r="F12" s="175" t="s">
         <v>158</v>
       </c>
       <c r="G12" s="53"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="159"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="111" t="s">
+      <c r="B13" s="172"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="110" t="s">
         <v>446</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="158"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="175"/>
     </row>
     <row r="14" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="172" t="s">
         <v>170</v>
       </c>
       <c r="C14" s="51" t="s">
@@ -15903,30 +16133,30 @@
       <c r="D14" s="51" t="s">
         <v>419</v>
       </c>
-      <c r="E14" s="162" t="s">
+      <c r="E14" s="176" t="s">
         <v>290</v>
       </c>
-      <c r="F14" s="162"/>
+      <c r="F14" s="176"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="159"/>
-      <c r="C15" s="103" t="s">
+      <c r="B15" s="172"/>
+      <c r="C15" s="102" t="s">
         <v>287</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>447</v>
       </c>
-      <c r="E15" s="160" t="s">
+      <c r="E15" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="160"/>
+      <c r="F15" s="173"/>
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="Q17" s="60"/>
@@ -15999,18 +16229,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B2:F5"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -16025,7 +16255,7 @@
   </sheetPr>
   <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:L13"/>
     </sheetView>
   </sheetViews>
@@ -16040,162 +16270,162 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="179" t="s">
         <v>458</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="167"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="181"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="168"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="170"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="184"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="168"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="170"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="184"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="168"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="170"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="184"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="168"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="170"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="184"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="168"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="170"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="184"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="184"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="168"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="169"/>
-      <c r="L9" s="170"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="184"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="168"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="170"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="184"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="168"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="170"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="184"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="168"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="170"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="184"/>
     </row>
     <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="171"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="173"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="187"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
@@ -16204,19 +16434,19 @@
       <c r="D16" s="6"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="188"/>
+      <c r="L18" s="188"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="40" t="s">
@@ -16257,31 +16487,31 @@
       <c r="B20" s="40">
         <v>1</v>
       </c>
-      <c r="C20" s="113">
+      <c r="C20" s="112">
         <v>10</v>
       </c>
-      <c r="D20" s="113">
+      <c r="D20" s="112">
         <v>11</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20" s="112">
         <v>12</v>
       </c>
-      <c r="F20" s="113">
+      <c r="F20" s="112">
         <v>13</v>
       </c>
-      <c r="G20" s="113">
+      <c r="G20" s="112">
         <v>14</v>
       </c>
-      <c r="H20" s="113">
+      <c r="H20" s="112">
         <v>15</v>
       </c>
-      <c r="I20" s="113">
+      <c r="I20" s="112">
         <v>16</v>
       </c>
-      <c r="J20" s="113">
+      <c r="J20" s="112">
         <v>17</v>
       </c>
-      <c r="K20" s="113">
+      <c r="K20" s="112">
         <v>18</v>
       </c>
       <c r="L20" s="43">
@@ -16292,31 +16522,31 @@
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113">
+      <c r="C21" s="112">
         <v>20</v>
       </c>
-      <c r="D21" s="113">
+      <c r="D21" s="112">
         <v>22</v>
       </c>
-      <c r="E21" s="113">
+      <c r="E21" s="112">
         <v>24</v>
       </c>
-      <c r="F21" s="113">
+      <c r="F21" s="112">
         <v>26</v>
       </c>
-      <c r="G21" s="113">
+      <c r="G21" s="112">
         <v>28</v>
       </c>
-      <c r="H21" s="113">
+      <c r="H21" s="112">
         <v>30</v>
       </c>
-      <c r="I21" s="113">
+      <c r="I21" s="112">
         <v>32</v>
       </c>
-      <c r="J21" s="113">
+      <c r="J21" s="112">
         <v>34</v>
       </c>
-      <c r="K21" s="113">
+      <c r="K21" s="112">
         <v>36</v>
       </c>
       <c r="L21" s="44">
@@ -16327,31 +16557,31 @@
       <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="113">
+      <c r="C22" s="112">
         <v>40</v>
       </c>
-      <c r="D22" s="113">
+      <c r="D22" s="112">
         <v>44</v>
       </c>
-      <c r="E22" s="113">
+      <c r="E22" s="112">
         <v>48</v>
       </c>
-      <c r="F22" s="113">
+      <c r="F22" s="112">
         <v>52</v>
       </c>
-      <c r="G22" s="113">
+      <c r="G22" s="112">
         <v>56</v>
       </c>
-      <c r="H22" s="113">
+      <c r="H22" s="112">
         <v>60</v>
       </c>
-      <c r="I22" s="113">
+      <c r="I22" s="112">
         <v>64</v>
       </c>
-      <c r="J22" s="113">
+      <c r="J22" s="112">
         <v>68</v>
       </c>
-      <c r="K22" s="113">
+      <c r="K22" s="112">
         <v>72</v>
       </c>
       <c r="L22" s="44">
@@ -16362,31 +16592,31 @@
       <c r="B23" s="40">
         <v>4</v>
       </c>
-      <c r="C23" s="113">
+      <c r="C23" s="112">
         <v>80</v>
       </c>
-      <c r="D23" s="113">
+      <c r="D23" s="112">
         <v>88</v>
       </c>
-      <c r="E23" s="113">
+      <c r="E23" s="112">
         <v>96</v>
       </c>
-      <c r="F23" s="113">
+      <c r="F23" s="112">
         <v>104</v>
       </c>
-      <c r="G23" s="113">
+      <c r="G23" s="112">
         <v>112</v>
       </c>
-      <c r="H23" s="113">
+      <c r="H23" s="112">
         <v>120</v>
       </c>
-      <c r="I23" s="113">
+      <c r="I23" s="112">
         <v>128</v>
       </c>
-      <c r="J23" s="113">
+      <c r="J23" s="112">
         <v>136</v>
       </c>
-      <c r="K23" s="113">
+      <c r="K23" s="112">
         <v>144</v>
       </c>
       <c r="L23" s="44">
@@ -16397,31 +16627,31 @@
       <c r="B24" s="40">
         <v>5</v>
       </c>
-      <c r="C24" s="113">
+      <c r="C24" s="112">
         <v>160</v>
       </c>
-      <c r="D24" s="113">
+      <c r="D24" s="112">
         <v>176</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E24" s="112">
         <v>192</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <v>208</v>
       </c>
-      <c r="G24" s="113">
+      <c r="G24" s="112">
         <v>224</v>
       </c>
-      <c r="H24" s="113">
+      <c r="H24" s="112">
         <v>240</v>
       </c>
-      <c r="I24" s="113">
+      <c r="I24" s="112">
         <v>256</v>
       </c>
-      <c r="J24" s="113">
+      <c r="J24" s="112">
         <v>272</v>
       </c>
-      <c r="K24" s="113">
+      <c r="K24" s="112">
         <v>288</v>
       </c>
       <c r="L24" s="44">
@@ -16432,31 +16662,31 @@
       <c r="B25" s="40">
         <v>6</v>
       </c>
-      <c r="C25" s="113">
+      <c r="C25" s="112">
         <v>320</v>
       </c>
-      <c r="D25" s="113">
+      <c r="D25" s="112">
         <v>352</v>
       </c>
-      <c r="E25" s="113">
+      <c r="E25" s="112">
         <v>384</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <v>416</v>
       </c>
-      <c r="G25" s="113">
+      <c r="G25" s="112">
         <v>448</v>
       </c>
-      <c r="H25" s="113">
+      <c r="H25" s="112">
         <v>480</v>
       </c>
-      <c r="I25" s="113">
+      <c r="I25" s="112">
         <v>512</v>
       </c>
-      <c r="J25" s="113">
+      <c r="J25" s="112">
         <v>544</v>
       </c>
-      <c r="K25" s="113">
+      <c r="K25" s="112">
         <v>576</v>
       </c>
       <c r="L25" s="44">
@@ -16467,31 +16697,31 @@
       <c r="B26" s="40">
         <v>7</v>
       </c>
-      <c r="C26" s="113">
+      <c r="C26" s="112">
         <v>640</v>
       </c>
-      <c r="D26" s="113">
+      <c r="D26" s="112">
         <v>704</v>
       </c>
-      <c r="E26" s="113">
+      <c r="E26" s="112">
         <v>768</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <v>832</v>
       </c>
-      <c r="G26" s="113">
+      <c r="G26" s="112">
         <v>896</v>
       </c>
-      <c r="H26" s="113">
+      <c r="H26" s="112">
         <v>960</v>
       </c>
-      <c r="I26" s="113">
+      <c r="I26" s="112">
         <v>1024</v>
       </c>
-      <c r="J26" s="113">
+      <c r="J26" s="112">
         <v>1088</v>
       </c>
-      <c r="K26" s="113">
+      <c r="K26" s="112">
         <v>1152</v>
       </c>
       <c r="L26" s="43">
@@ -16502,31 +16732,31 @@
       <c r="B27" s="40">
         <v>8</v>
       </c>
-      <c r="C27" s="113">
+      <c r="C27" s="112">
         <v>1280</v>
       </c>
-      <c r="D27" s="113">
+      <c r="D27" s="112">
         <v>1408</v>
       </c>
-      <c r="E27" s="113">
+      <c r="E27" s="112">
         <v>1536</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <v>1664</v>
       </c>
-      <c r="G27" s="113">
+      <c r="G27" s="112">
         <v>1792</v>
       </c>
-      <c r="H27" s="113">
+      <c r="H27" s="112">
         <v>1920</v>
       </c>
-      <c r="I27" s="113">
+      <c r="I27" s="112">
         <v>2048</v>
       </c>
-      <c r="J27" s="113">
+      <c r="J27" s="112">
         <v>2176</v>
       </c>
-      <c r="K27" s="113">
+      <c r="K27" s="112">
         <v>2304</v>
       </c>
       <c r="L27" s="43">
@@ -16534,32 +16764,32 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="156" t="s">
+      <c r="B30" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="170"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="40" t="s">
@@ -16600,34 +16830,34 @@
       <c r="B32" s="40">
         <v>1</v>
       </c>
-      <c r="C32" s="192">
+      <c r="C32" s="122">
         <v>0</v>
       </c>
-      <c r="D32" s="192" t="s">
+      <c r="D32" s="122" t="s">
         <v>422</v>
       </c>
-      <c r="E32" s="192">
+      <c r="E32" s="122">
         <v>300</v>
       </c>
-      <c r="F32" s="192">
+      <c r="F32" s="122">
         <v>400</v>
       </c>
-      <c r="G32" s="192">
+      <c r="G32" s="122">
         <v>500</v>
       </c>
-      <c r="H32" s="192">
+      <c r="H32" s="122">
         <v>600</v>
       </c>
-      <c r="I32" s="192">
+      <c r="I32" s="122">
         <v>700</v>
       </c>
-      <c r="J32" s="192">
+      <c r="J32" s="122">
         <v>800</v>
       </c>
-      <c r="K32" s="192">
+      <c r="K32" s="122">
         <v>900</v>
       </c>
-      <c r="L32" s="191">
+      <c r="L32" s="121">
         <v>100</v>
       </c>
     </row>
@@ -16635,34 +16865,34 @@
       <c r="B33" s="40">
         <v>2</v>
       </c>
-      <c r="C33" s="192">
+      <c r="C33" s="122">
         <v>1300</v>
       </c>
-      <c r="D33" s="192">
+      <c r="D33" s="122">
         <v>1700</v>
       </c>
-      <c r="E33" s="192">
+      <c r="E33" s="122">
         <v>2100</v>
       </c>
-      <c r="F33" s="192">
+      <c r="F33" s="122">
         <v>2500</v>
       </c>
-      <c r="G33" s="192">
+      <c r="G33" s="122">
         <v>2900</v>
       </c>
-      <c r="H33" s="192">
+      <c r="H33" s="122">
         <v>3300</v>
       </c>
-      <c r="I33" s="192">
+      <c r="I33" s="122">
         <v>3700</v>
       </c>
-      <c r="J33" s="192">
+      <c r="J33" s="122">
         <v>4100</v>
       </c>
-      <c r="K33" s="192">
+      <c r="K33" s="122">
         <v>4500</v>
       </c>
-      <c r="L33" s="191">
+      <c r="L33" s="121">
         <v>400</v>
       </c>
     </row>
@@ -16670,34 +16900,34 @@
       <c r="B34" s="40">
         <v>3</v>
       </c>
-      <c r="C34" s="192">
+      <c r="C34" s="122">
         <v>6100</v>
       </c>
-      <c r="D34" s="192">
+      <c r="D34" s="122">
         <v>7700</v>
       </c>
-      <c r="E34" s="192">
+      <c r="E34" s="122">
         <v>9300</v>
       </c>
-      <c r="F34" s="192">
+      <c r="F34" s="122">
         <v>10900</v>
       </c>
-      <c r="G34" s="192">
+      <c r="G34" s="122">
         <v>12500</v>
       </c>
-      <c r="H34" s="192">
+      <c r="H34" s="122">
         <v>14100</v>
       </c>
-      <c r="I34" s="192">
+      <c r="I34" s="122">
         <v>15700</v>
       </c>
-      <c r="J34" s="192">
+      <c r="J34" s="122">
         <v>17300</v>
       </c>
-      <c r="K34" s="192">
+      <c r="K34" s="122">
         <v>18900</v>
       </c>
-      <c r="L34" s="191">
+      <c r="L34" s="121">
         <f>L33*4</f>
         <v>1600</v>
       </c>
@@ -16706,34 +16936,34 @@
       <c r="B35" s="40">
         <v>4</v>
       </c>
-      <c r="C35" s="192">
+      <c r="C35" s="122">
         <v>26900</v>
       </c>
-      <c r="D35" s="192">
+      <c r="D35" s="122">
         <v>34900</v>
       </c>
-      <c r="E35" s="192">
+      <c r="E35" s="122">
         <v>42900</v>
       </c>
-      <c r="F35" s="192">
+      <c r="F35" s="122">
         <v>50900</v>
       </c>
-      <c r="G35" s="192">
+      <c r="G35" s="122">
         <v>58900</v>
       </c>
-      <c r="H35" s="192">
+      <c r="H35" s="122">
         <v>66900</v>
       </c>
-      <c r="I35" s="192">
+      <c r="I35" s="122">
         <v>74900</v>
       </c>
-      <c r="J35" s="192">
+      <c r="J35" s="122">
         <v>82900</v>
       </c>
-      <c r="K35" s="192">
+      <c r="K35" s="122">
         <v>90900</v>
       </c>
-      <c r="L35" s="191">
+      <c r="L35" s="121">
         <f>L34*5</f>
         <v>8000</v>
       </c>
@@ -16742,34 +16972,34 @@
       <c r="B36" s="40">
         <v>5</v>
       </c>
-      <c r="C36" s="192">
+      <c r="C36" s="122">
         <v>138900</v>
       </c>
-      <c r="D36" s="192">
+      <c r="D36" s="122">
         <v>186900</v>
       </c>
-      <c r="E36" s="192">
+      <c r="E36" s="122">
         <v>234900</v>
       </c>
-      <c r="F36" s="192">
+      <c r="F36" s="122">
         <v>282900</v>
       </c>
-      <c r="G36" s="192">
+      <c r="G36" s="122">
         <v>330900</v>
       </c>
-      <c r="H36" s="192">
+      <c r="H36" s="122">
         <v>378900</v>
       </c>
-      <c r="I36" s="192">
+      <c r="I36" s="122">
         <v>426900</v>
       </c>
-      <c r="J36" s="192">
+      <c r="J36" s="122">
         <v>474900</v>
       </c>
-      <c r="K36" s="192">
+      <c r="K36" s="122">
         <v>522900</v>
       </c>
-      <c r="L36" s="191">
+      <c r="L36" s="121">
         <f>L35*6</f>
         <v>48000</v>
       </c>
@@ -16778,34 +17008,34 @@
       <c r="B37" s="40">
         <v>6</v>
       </c>
-      <c r="C37" s="192">
+      <c r="C37" s="122">
         <v>858900</v>
       </c>
-      <c r="D37" s="192">
+      <c r="D37" s="122">
         <v>1194900</v>
       </c>
-      <c r="E37" s="192">
+      <c r="E37" s="122">
         <v>1530900</v>
       </c>
-      <c r="F37" s="192">
+      <c r="F37" s="122">
         <v>1866900</v>
       </c>
-      <c r="G37" s="192">
+      <c r="G37" s="122">
         <v>2202900</v>
       </c>
-      <c r="H37" s="192">
+      <c r="H37" s="122">
         <v>2538900</v>
       </c>
-      <c r="I37" s="192">
+      <c r="I37" s="122">
         <v>2874900</v>
       </c>
-      <c r="J37" s="192">
+      <c r="J37" s="122">
         <v>3210900</v>
       </c>
-      <c r="K37" s="192">
+      <c r="K37" s="122">
         <v>3546900</v>
       </c>
-      <c r="L37" s="191">
+      <c r="L37" s="121">
         <f>L36*7</f>
         <v>336000</v>
       </c>
@@ -16814,34 +17044,34 @@
       <c r="B38" s="40">
         <v>7</v>
       </c>
-      <c r="C38" s="192">
+      <c r="C38" s="122">
         <v>6234900</v>
       </c>
-      <c r="D38" s="192">
+      <c r="D38" s="122">
         <v>8922900</v>
       </c>
-      <c r="E38" s="192">
+      <c r="E38" s="122">
         <v>11610900</v>
       </c>
-      <c r="F38" s="192">
+      <c r="F38" s="122">
         <v>14298900</v>
       </c>
-      <c r="G38" s="192">
+      <c r="G38" s="122">
         <v>16986900</v>
       </c>
-      <c r="H38" s="192">
+      <c r="H38" s="122">
         <v>19674900</v>
       </c>
-      <c r="I38" s="192">
+      <c r="I38" s="122">
         <v>22362900</v>
       </c>
-      <c r="J38" s="192">
+      <c r="J38" s="122">
         <v>25050900</v>
       </c>
-      <c r="K38" s="192">
+      <c r="K38" s="122">
         <v>27738900</v>
       </c>
-      <c r="L38" s="191">
+      <c r="L38" s="121">
         <f>L37*8</f>
         <v>2688000</v>
       </c>
@@ -16850,50 +17080,50 @@
       <c r="B39" s="40">
         <v>8</v>
       </c>
-      <c r="C39" s="192">
+      <c r="C39" s="122">
         <v>51930900</v>
       </c>
-      <c r="D39" s="192">
+      <c r="D39" s="122">
         <v>76122900</v>
       </c>
-      <c r="E39" s="192">
+      <c r="E39" s="122">
         <v>100314900</v>
       </c>
-      <c r="F39" s="192">
+      <c r="F39" s="122">
         <v>124506900</v>
       </c>
-      <c r="G39" s="192">
+      <c r="G39" s="122">
         <v>148698900</v>
       </c>
-      <c r="H39" s="192">
+      <c r="H39" s="122">
         <v>172890900</v>
       </c>
-      <c r="I39" s="192">
+      <c r="I39" s="122">
         <v>197082900</v>
       </c>
-      <c r="J39" s="192">
+      <c r="J39" s="122">
         <v>221274900</v>
       </c>
-      <c r="K39" s="192">
+      <c r="K39" s="122">
         <v>245466900</v>
       </c>
-      <c r="L39" s="191">
+      <c r="L39" s="121">
         <f>L38*9</f>
         <v>24192000</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="164"/>
-      <c r="C41" s="164"/>
-      <c r="D41" s="164"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="164"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="164"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="164"/>
-      <c r="K41" s="164"/>
-      <c r="L41" s="164"/>
+      <c r="B41" s="178"/>
+      <c r="C41" s="178"/>
+      <c r="D41" s="178"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="178"/>
+      <c r="K41" s="178"/>
+      <c r="L41" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -16914,942 +17144,1382 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="114" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="114" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.75" style="114" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="17.25" style="114" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="114"/>
+    <col min="1" max="1" width="11.125" style="113" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="113" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" style="113" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="17.25" style="113" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="113"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="100" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="100" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="M1" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="101" t="s">
+      <c r="N1" s="100" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>405</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="116">
         <v>1</v>
       </c>
-      <c r="D2" s="113">
+      <c r="D2" s="112">
         <v>10</v>
       </c>
-      <c r="E2" s="113">
+      <c r="E2" s="112">
         <v>11</v>
       </c>
-      <c r="F2" s="113">
+      <c r="F2" s="112">
         <v>12</v>
       </c>
-      <c r="G2" s="113">
+      <c r="G2" s="112">
         <v>13</v>
       </c>
-      <c r="H2" s="113">
+      <c r="H2" s="112">
         <v>14</v>
       </c>
-      <c r="I2" s="113">
+      <c r="I2" s="112">
         <v>15</v>
       </c>
-      <c r="J2" s="113">
+      <c r="J2" s="112">
         <v>16</v>
       </c>
-      <c r="K2" s="113">
+      <c r="K2" s="112">
         <v>17</v>
       </c>
-      <c r="L2" s="113">
+      <c r="L2" s="112">
         <v>18</v>
       </c>
-      <c r="M2" s="113">
+      <c r="M2" s="112">
         <v>19</v>
       </c>
-      <c r="N2" s="118" t="b">
+      <c r="N2" s="117" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="116">
+      <c r="B3" s="115">
         <v>2</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="116">
         <v>0</v>
       </c>
-      <c r="D3" s="113">
+      <c r="D3" s="112">
         <v>20</v>
       </c>
-      <c r="E3" s="113">
+      <c r="E3" s="112">
         <v>22</v>
       </c>
-      <c r="F3" s="113">
+      <c r="F3" s="112">
         <v>24</v>
       </c>
-      <c r="G3" s="113">
+      <c r="G3" s="112">
         <v>26</v>
       </c>
-      <c r="H3" s="113">
+      <c r="H3" s="112">
         <v>28</v>
       </c>
-      <c r="I3" s="113">
+      <c r="I3" s="112">
         <v>30</v>
       </c>
-      <c r="J3" s="113">
+      <c r="J3" s="112">
         <v>32</v>
       </c>
-      <c r="K3" s="113">
+      <c r="K3" s="112">
         <v>34</v>
       </c>
-      <c r="L3" s="113">
+      <c r="L3" s="112">
         <v>36</v>
       </c>
-      <c r="M3" s="113">
+      <c r="M3" s="112">
         <v>38</v>
       </c>
-      <c r="N3" s="118" t="b">
+      <c r="N3" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="116">
+      <c r="B4" s="115">
         <v>4</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="116">
         <v>0</v>
       </c>
-      <c r="D4" s="113">
+      <c r="D4" s="112">
         <v>40</v>
       </c>
-      <c r="E4" s="113">
+      <c r="E4" s="112">
         <v>44</v>
       </c>
-      <c r="F4" s="113">
+      <c r="F4" s="112">
         <v>48</v>
       </c>
-      <c r="G4" s="113">
+      <c r="G4" s="112">
         <v>52</v>
       </c>
-      <c r="H4" s="113">
+      <c r="H4" s="112">
         <v>56</v>
       </c>
-      <c r="I4" s="113">
+      <c r="I4" s="112">
         <v>60</v>
       </c>
-      <c r="J4" s="113">
+      <c r="J4" s="112">
         <v>64</v>
       </c>
-      <c r="K4" s="113">
+      <c r="K4" s="112">
         <v>68</v>
       </c>
-      <c r="L4" s="113">
+      <c r="L4" s="112">
         <v>72</v>
       </c>
-      <c r="M4" s="113">
+      <c r="M4" s="112">
         <v>76</v>
       </c>
-      <c r="N4" s="118" t="b">
+      <c r="N4" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="115">
         <v>8</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="116">
         <v>0</v>
       </c>
-      <c r="D5" s="113">
+      <c r="D5" s="112">
         <v>80</v>
       </c>
-      <c r="E5" s="113">
+      <c r="E5" s="112">
         <v>88</v>
       </c>
-      <c r="F5" s="113">
+      <c r="F5" s="112">
         <v>96</v>
       </c>
-      <c r="G5" s="113">
+      <c r="G5" s="112">
         <v>104</v>
       </c>
-      <c r="H5" s="113">
+      <c r="H5" s="112">
         <v>112</v>
       </c>
-      <c r="I5" s="113">
+      <c r="I5" s="112">
         <v>120</v>
       </c>
-      <c r="J5" s="113">
+      <c r="J5" s="112">
         <v>128</v>
       </c>
-      <c r="K5" s="113">
+      <c r="K5" s="112">
         <v>136</v>
       </c>
-      <c r="L5" s="113">
+      <c r="L5" s="112">
         <v>144</v>
       </c>
-      <c r="M5" s="113">
+      <c r="M5" s="112">
         <v>152</v>
       </c>
-      <c r="N5" s="118" t="b">
+      <c r="N5" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6" s="115">
         <v>16</v>
       </c>
-      <c r="C6" s="117">
+      <c r="C6" s="116">
         <v>0</v>
       </c>
-      <c r="D6" s="113">
+      <c r="D6" s="112">
         <v>160</v>
       </c>
-      <c r="E6" s="113">
+      <c r="E6" s="112">
         <v>176</v>
       </c>
-      <c r="F6" s="113">
+      <c r="F6" s="112">
         <v>192</v>
       </c>
-      <c r="G6" s="113">
+      <c r="G6" s="112">
         <v>208</v>
       </c>
-      <c r="H6" s="113">
+      <c r="H6" s="112">
         <v>224</v>
       </c>
-      <c r="I6" s="113">
+      <c r="I6" s="112">
         <v>240</v>
       </c>
-      <c r="J6" s="113">
+      <c r="J6" s="112">
         <v>256</v>
       </c>
-      <c r="K6" s="113">
+      <c r="K6" s="112">
         <v>272</v>
       </c>
-      <c r="L6" s="113">
+      <c r="L6" s="112">
         <v>288</v>
       </c>
-      <c r="M6" s="113">
+      <c r="M6" s="112">
         <v>304</v>
       </c>
-      <c r="N6" s="118" t="b">
+      <c r="N6" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="116">
+      <c r="B7" s="115">
         <v>32</v>
       </c>
-      <c r="C7" s="117">
+      <c r="C7" s="116">
         <v>0</v>
       </c>
-      <c r="D7" s="113">
+      <c r="D7" s="112">
         <v>320</v>
       </c>
-      <c r="E7" s="113">
+      <c r="E7" s="112">
         <v>352</v>
       </c>
-      <c r="F7" s="113">
+      <c r="F7" s="112">
         <v>384</v>
       </c>
-      <c r="G7" s="113">
+      <c r="G7" s="112">
         <v>416</v>
       </c>
-      <c r="H7" s="113">
+      <c r="H7" s="112">
         <v>448</v>
       </c>
-      <c r="I7" s="113">
+      <c r="I7" s="112">
         <v>480</v>
       </c>
-      <c r="J7" s="113">
+      <c r="J7" s="112">
         <v>512</v>
       </c>
-      <c r="K7" s="113">
+      <c r="K7" s="112">
         <v>544</v>
       </c>
-      <c r="L7" s="113">
+      <c r="L7" s="112">
         <v>576</v>
       </c>
-      <c r="M7" s="113">
+      <c r="M7" s="112">
         <v>608</v>
       </c>
-      <c r="N7" s="118" t="b">
+      <c r="N7" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="116">
+      <c r="B8" s="115">
         <v>64</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="116">
         <v>0</v>
       </c>
-      <c r="D8" s="113">
+      <c r="D8" s="112">
         <v>640</v>
       </c>
-      <c r="E8" s="113">
+      <c r="E8" s="112">
         <v>704</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="112">
         <v>768</v>
       </c>
-      <c r="G8" s="113">
+      <c r="G8" s="112">
         <v>832</v>
       </c>
-      <c r="H8" s="113">
+      <c r="H8" s="112">
         <v>896</v>
       </c>
-      <c r="I8" s="113">
+      <c r="I8" s="112">
         <v>960</v>
       </c>
-      <c r="J8" s="113">
+      <c r="J8" s="112">
         <v>1024</v>
       </c>
-      <c r="K8" s="113">
+      <c r="K8" s="112">
         <v>1088</v>
       </c>
-      <c r="L8" s="113">
+      <c r="L8" s="112">
         <v>1152</v>
       </c>
-      <c r="M8" s="113">
+      <c r="M8" s="112">
         <v>1216</v>
       </c>
-      <c r="N8" s="118" t="b">
+      <c r="N8" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="116">
+      <c r="B9" s="115">
         <v>128</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="116">
         <v>0</v>
       </c>
-      <c r="D9" s="113">
+      <c r="D9" s="112">
         <v>1280</v>
       </c>
-      <c r="E9" s="113">
+      <c r="E9" s="112">
         <v>1408</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="112">
         <v>1536</v>
       </c>
-      <c r="G9" s="113">
+      <c r="G9" s="112">
         <v>1664</v>
       </c>
-      <c r="H9" s="113">
+      <c r="H9" s="112">
         <v>1792</v>
       </c>
-      <c r="I9" s="113">
+      <c r="I9" s="112">
         <v>1920</v>
       </c>
-      <c r="J9" s="113">
+      <c r="J9" s="112">
         <v>2048</v>
       </c>
-      <c r="K9" s="113">
+      <c r="K9" s="112">
         <v>2176</v>
       </c>
-      <c r="L9" s="113">
+      <c r="L9" s="112">
         <v>2304</v>
       </c>
-      <c r="M9" s="113">
+      <c r="M9" s="112">
         <v>2432</v>
       </c>
-      <c r="N9" s="118" t="b">
+      <c r="N9" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="116">
+      <c r="B10" s="115">
         <v>256</v>
       </c>
-      <c r="C10" s="117">
+      <c r="C10" s="116">
         <v>0</v>
       </c>
-      <c r="D10" s="113">
+      <c r="D10" s="112">
         <v>2560</v>
       </c>
-      <c r="E10" s="113">
+      <c r="E10" s="112">
         <v>2816</v>
       </c>
-      <c r="F10" s="113">
+      <c r="F10" s="112">
         <v>3072</v>
       </c>
-      <c r="G10" s="113">
+      <c r="G10" s="112">
         <v>3328</v>
       </c>
-      <c r="H10" s="113">
+      <c r="H10" s="112">
         <v>3584</v>
       </c>
-      <c r="I10" s="113">
+      <c r="I10" s="112">
         <v>3840</v>
       </c>
-      <c r="J10" s="113">
+      <c r="J10" s="112">
         <v>4096</v>
       </c>
-      <c r="K10" s="113">
+      <c r="K10" s="112">
         <v>4352</v>
       </c>
-      <c r="L10" s="113">
+      <c r="L10" s="112">
         <v>4608</v>
       </c>
-      <c r="M10" s="113">
+      <c r="M10" s="112">
         <v>4864</v>
       </c>
-      <c r="N10" s="118" t="b">
+      <c r="N10" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="116">
+      <c r="B11" s="115">
         <v>512</v>
       </c>
-      <c r="C11" s="117">
+      <c r="C11" s="116">
         <v>0</v>
       </c>
-      <c r="D11" s="113">
+      <c r="D11" s="112">
         <v>5120</v>
       </c>
-      <c r="E11" s="113">
+      <c r="E11" s="112">
         <v>5632</v>
       </c>
-      <c r="F11" s="113">
+      <c r="F11" s="112">
         <v>6144</v>
       </c>
-      <c r="G11" s="113">
+      <c r="G11" s="112">
         <v>6656</v>
       </c>
-      <c r="H11" s="113">
+      <c r="H11" s="112">
         <v>7168</v>
       </c>
-      <c r="I11" s="113">
+      <c r="I11" s="112">
         <v>7680</v>
       </c>
-      <c r="J11" s="113">
+      <c r="J11" s="112">
         <v>8192</v>
       </c>
-      <c r="K11" s="113">
+      <c r="K11" s="112">
         <v>8704</v>
       </c>
-      <c r="L11" s="113">
+      <c r="L11" s="112">
         <v>9216</v>
       </c>
-      <c r="M11" s="113">
+      <c r="M11" s="112">
         <v>9728</v>
       </c>
-      <c r="N11" s="118" t="b">
+      <c r="N11" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="116">
+      <c r="B12" s="115">
         <v>1024</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="116">
         <v>0</v>
       </c>
-      <c r="D12" s="113">
+      <c r="D12" s="112">
         <v>10240</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12" s="112">
         <v>11264</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="112">
         <v>12288</v>
       </c>
-      <c r="G12" s="113">
+      <c r="G12" s="112">
         <v>13312</v>
       </c>
-      <c r="H12" s="113">
+      <c r="H12" s="112">
         <v>14336</v>
       </c>
-      <c r="I12" s="113">
+      <c r="I12" s="112">
         <v>15360</v>
       </c>
-      <c r="J12" s="113">
+      <c r="J12" s="112">
         <v>16384</v>
       </c>
-      <c r="K12" s="113">
+      <c r="K12" s="112">
         <v>17408</v>
       </c>
-      <c r="L12" s="113">
+      <c r="L12" s="112">
         <v>18432</v>
       </c>
-      <c r="M12" s="113">
+      <c r="M12" s="112">
         <v>19456</v>
       </c>
-      <c r="N12" s="118" t="b">
+      <c r="N12" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="116">
+      <c r="B13" s="115">
         <v>2048</v>
       </c>
-      <c r="C13" s="117">
+      <c r="C13" s="116">
         <v>0</v>
       </c>
-      <c r="D13" s="113">
+      <c r="D13" s="112">
         <v>20480</v>
       </c>
-      <c r="E13" s="113">
+      <c r="E13" s="112">
         <v>22528</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="112">
         <v>24576</v>
       </c>
-      <c r="G13" s="113">
+      <c r="G13" s="112">
         <v>26624</v>
       </c>
-      <c r="H13" s="113">
+      <c r="H13" s="112">
         <v>28672</v>
       </c>
-      <c r="I13" s="113">
+      <c r="I13" s="112">
         <v>30720</v>
       </c>
-      <c r="J13" s="113">
+      <c r="J13" s="112">
         <v>32768</v>
       </c>
-      <c r="K13" s="113">
+      <c r="K13" s="112">
         <v>34816</v>
       </c>
-      <c r="L13" s="113">
+      <c r="L13" s="112">
         <v>36864</v>
       </c>
-      <c r="M13" s="113">
+      <c r="M13" s="112">
         <v>38912</v>
       </c>
-      <c r="N13" s="118" t="b">
+      <c r="N13" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="116">
+      <c r="B14" s="115">
         <v>4096</v>
       </c>
-      <c r="C14" s="117">
+      <c r="C14" s="116">
         <v>0</v>
       </c>
-      <c r="D14" s="113">
+      <c r="D14" s="112">
         <v>40960</v>
       </c>
-      <c r="E14" s="113">
+      <c r="E14" s="112">
         <v>45056</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="112">
         <v>49152</v>
       </c>
-      <c r="G14" s="113">
+      <c r="G14" s="112">
         <v>53248</v>
       </c>
-      <c r="H14" s="113">
+      <c r="H14" s="112">
         <v>57344</v>
       </c>
-      <c r="I14" s="113">
+      <c r="I14" s="112">
         <v>61440</v>
       </c>
-      <c r="J14" s="113">
+      <c r="J14" s="112">
         <v>65536</v>
       </c>
-      <c r="K14" s="113">
+      <c r="K14" s="112">
         <v>69632</v>
       </c>
-      <c r="L14" s="113">
+      <c r="L14" s="112">
         <v>73728</v>
       </c>
-      <c r="M14" s="113">
+      <c r="M14" s="112">
         <v>77824</v>
       </c>
-      <c r="N14" s="118" t="b">
+      <c r="N14" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="116">
+      <c r="B15" s="115">
         <v>8192</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="116">
         <v>0</v>
       </c>
-      <c r="D15" s="113">
+      <c r="D15" s="112">
         <v>81920</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="112">
         <v>90112</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="112">
         <v>98304</v>
       </c>
-      <c r="G15" s="113">
+      <c r="G15" s="112">
         <v>106496</v>
       </c>
-      <c r="H15" s="113">
+      <c r="H15" s="112">
         <v>114688</v>
       </c>
-      <c r="I15" s="113">
+      <c r="I15" s="112">
         <v>122880</v>
       </c>
-      <c r="J15" s="113">
+      <c r="J15" s="112">
         <v>131072</v>
       </c>
-      <c r="K15" s="113">
+      <c r="K15" s="112">
         <v>139264</v>
       </c>
-      <c r="L15" s="113">
+      <c r="L15" s="112">
         <v>147456</v>
       </c>
-      <c r="M15" s="113">
+      <c r="M15" s="112">
         <v>155648</v>
       </c>
-      <c r="N15" s="118" t="b">
+      <c r="N15" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="116">
+      <c r="B16" s="115">
         <v>16384</v>
       </c>
-      <c r="C16" s="117">
+      <c r="C16" s="116">
         <v>0</v>
       </c>
-      <c r="D16" s="113">
+      <c r="D16" s="112">
         <v>163840</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="112">
         <v>180224</v>
       </c>
-      <c r="F16" s="113">
+      <c r="F16" s="112">
         <v>196608</v>
       </c>
-      <c r="G16" s="113">
+      <c r="G16" s="112">
         <v>212992</v>
       </c>
-      <c r="H16" s="113">
+      <c r="H16" s="112">
         <v>229376</v>
       </c>
-      <c r="I16" s="113">
+      <c r="I16" s="112">
         <v>245760</v>
       </c>
-      <c r="J16" s="113">
+      <c r="J16" s="112">
         <v>262144</v>
       </c>
-      <c r="K16" s="113">
+      <c r="K16" s="112">
         <v>278528</v>
       </c>
-      <c r="L16" s="113">
+      <c r="L16" s="112">
         <v>294912</v>
       </c>
-      <c r="M16" s="113">
+      <c r="M16" s="112">
         <v>311296</v>
       </c>
-      <c r="N16" s="118" t="b">
+      <c r="N16" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="116">
+      <c r="B17" s="115">
         <v>32768</v>
       </c>
-      <c r="C17" s="117">
+      <c r="C17" s="116">
         <v>0</v>
       </c>
-      <c r="D17" s="113">
+      <c r="D17" s="112">
         <v>327680</v>
       </c>
-      <c r="E17" s="113">
+      <c r="E17" s="112">
         <v>360448</v>
       </c>
-      <c r="F17" s="113">
+      <c r="F17" s="112">
         <v>393216</v>
       </c>
-      <c r="G17" s="113">
+      <c r="G17" s="112">
         <v>425984</v>
       </c>
-      <c r="H17" s="113">
+      <c r="H17" s="112">
         <v>458752</v>
       </c>
-      <c r="I17" s="113">
+      <c r="I17" s="112">
         <v>491520</v>
       </c>
-      <c r="J17" s="113">
+      <c r="J17" s="112">
         <v>524288</v>
       </c>
-      <c r="K17" s="113">
+      <c r="K17" s="112">
         <v>557056</v>
       </c>
-      <c r="L17" s="113">
+      <c r="L17" s="112">
         <v>589824</v>
       </c>
-      <c r="M17" s="113">
+      <c r="M17" s="112">
         <v>622592</v>
       </c>
-      <c r="N17" s="118" t="b">
+      <c r="N17" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="116">
+      <c r="B18" s="115">
         <v>65536</v>
       </c>
-      <c r="C18" s="117">
+      <c r="C18" s="116">
         <v>0</v>
       </c>
-      <c r="D18" s="113">
+      <c r="D18" s="112">
         <v>655360</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18" s="112">
         <v>720896</v>
       </c>
-      <c r="F18" s="113">
+      <c r="F18" s="112">
         <v>786432</v>
       </c>
-      <c r="G18" s="113">
+      <c r="G18" s="112">
         <v>851968</v>
       </c>
-      <c r="H18" s="113">
+      <c r="H18" s="112">
         <v>917504</v>
       </c>
-      <c r="I18" s="113">
+      <c r="I18" s="112">
         <v>983040</v>
       </c>
-      <c r="J18" s="113">
+      <c r="J18" s="112">
         <v>1048576</v>
       </c>
-      <c r="K18" s="113">
+      <c r="K18" s="112">
         <v>1114112</v>
       </c>
-      <c r="L18" s="113">
+      <c r="L18" s="112">
         <v>1179648</v>
       </c>
-      <c r="M18" s="113">
+      <c r="M18" s="112">
         <v>1245184</v>
       </c>
-      <c r="N18" s="118" t="b">
+      <c r="N18" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="116">
+      <c r="B19" s="115">
         <v>131072</v>
       </c>
-      <c r="C19" s="117">
+      <c r="C19" s="116">
         <v>0</v>
       </c>
-      <c r="D19" s="113">
+      <c r="D19" s="112">
         <v>1310720</v>
       </c>
-      <c r="E19" s="113">
+      <c r="E19" s="112">
         <v>1441792</v>
       </c>
-      <c r="F19" s="113">
+      <c r="F19" s="112">
         <v>1572864</v>
       </c>
-      <c r="G19" s="113">
+      <c r="G19" s="112">
         <v>1703936</v>
       </c>
-      <c r="H19" s="113">
+      <c r="H19" s="112">
         <v>1835008</v>
       </c>
-      <c r="I19" s="113">
+      <c r="I19" s="112">
         <v>1966080</v>
       </c>
-      <c r="J19" s="113">
+      <c r="J19" s="112">
         <v>2097152</v>
       </c>
-      <c r="K19" s="113">
+      <c r="K19" s="112">
         <v>2228224</v>
       </c>
-      <c r="L19" s="113">
+      <c r="L19" s="112">
         <v>2359296</v>
       </c>
-      <c r="M19" s="113">
+      <c r="M19" s="112">
         <v>2490368</v>
       </c>
-      <c r="N19" s="118" t="b">
+      <c r="N19" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="116">
+      <c r="B20" s="115">
         <v>262144</v>
       </c>
-      <c r="C20" s="117">
+      <c r="C20" s="116">
         <v>0</v>
       </c>
-      <c r="D20" s="113">
+      <c r="D20" s="112">
         <v>2621440</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20" s="112">
         <v>2883584</v>
       </c>
-      <c r="F20" s="113">
+      <c r="F20" s="112">
         <v>3145728</v>
       </c>
-      <c r="G20" s="113">
+      <c r="G20" s="112">
         <v>3407872</v>
       </c>
-      <c r="H20" s="113">
+      <c r="H20" s="112">
         <v>3670016</v>
       </c>
-      <c r="I20" s="113">
+      <c r="I20" s="112">
         <v>3932160</v>
       </c>
-      <c r="J20" s="113">
+      <c r="J20" s="112">
         <v>4194304</v>
       </c>
-      <c r="K20" s="113">
+      <c r="K20" s="112">
         <v>4456448</v>
       </c>
-      <c r="L20" s="113">
+      <c r="L20" s="112">
         <v>4718592</v>
       </c>
-      <c r="M20" s="113">
+      <c r="M20" s="112">
         <v>4980736</v>
       </c>
-      <c r="N20" s="118" t="b">
+      <c r="N20" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="116">
+      <c r="B21" s="115">
         <v>524288</v>
       </c>
-      <c r="C21" s="117">
+      <c r="C21" s="116">
         <v>0</v>
       </c>
-      <c r="D21" s="113">
+      <c r="D21" s="112">
         <v>5242880</v>
       </c>
-      <c r="E21" s="113">
+      <c r="E21" s="112">
         <v>5767168</v>
       </c>
-      <c r="F21" s="113">
+      <c r="F21" s="112">
         <v>6291456</v>
       </c>
-      <c r="G21" s="113">
+      <c r="G21" s="112">
         <v>6815744</v>
       </c>
-      <c r="H21" s="113">
+      <c r="H21" s="112">
         <v>7340032</v>
       </c>
-      <c r="I21" s="113">
+      <c r="I21" s="112">
         <v>7864320</v>
       </c>
-      <c r="J21" s="113">
+      <c r="J21" s="112">
         <v>8388608</v>
       </c>
-      <c r="K21" s="113">
+      <c r="K21" s="112">
         <v>8912896</v>
       </c>
-      <c r="L21" s="113">
+      <c r="L21" s="112">
         <v>9437184</v>
       </c>
-      <c r="M21" s="113">
+      <c r="M21" s="112">
         <v>9961472</v>
       </c>
-      <c r="N21" s="118" t="b">
+      <c r="N21" s="117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="114" t="s">
+        <v>498</v>
+      </c>
+      <c r="B22" s="115">
+        <f>B21*2</f>
+        <v>1048576</v>
+      </c>
+      <c r="C22" s="116">
+        <v>0</v>
+      </c>
+      <c r="D22" s="115">
+        <f>D21*2</f>
+        <v>10485760</v>
+      </c>
+      <c r="E22" s="127">
+        <f>D22+B22</f>
+        <v>11534336</v>
+      </c>
+      <c r="F22" s="115">
+        <f>E22+B22</f>
+        <v>12582912</v>
+      </c>
+      <c r="G22" s="115">
+        <f>F22+B22</f>
+        <v>13631488</v>
+      </c>
+      <c r="H22" s="115">
+        <f>G22+B22</f>
+        <v>14680064</v>
+      </c>
+      <c r="I22" s="115">
+        <f>H22+B22</f>
+        <v>15728640</v>
+      </c>
+      <c r="J22" s="115">
+        <f>I22+B22</f>
+        <v>16777216</v>
+      </c>
+      <c r="K22" s="115">
+        <f>J22+B22</f>
+        <v>17825792</v>
+      </c>
+      <c r="L22" s="115">
+        <f>K22+B22</f>
+        <v>18874368</v>
+      </c>
+      <c r="M22" s="115">
+        <f>L22+B22</f>
+        <v>19922944</v>
+      </c>
+      <c r="N22" s="117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="114" t="s">
+        <v>499</v>
+      </c>
+      <c r="B23" s="115">
+        <f t="shared" ref="B23:B29" si="0">B22*2</f>
+        <v>2097152</v>
+      </c>
+      <c r="C23" s="116">
+        <v>0</v>
+      </c>
+      <c r="D23" s="115">
+        <f t="shared" ref="D23:D25" si="1">D22*2</f>
+        <v>20971520</v>
+      </c>
+      <c r="E23" s="127">
+        <f t="shared" ref="E23:E25" si="2">D23+B23</f>
+        <v>23068672</v>
+      </c>
+      <c r="F23" s="115">
+        <f t="shared" ref="F23:F25" si="3">E23+B23</f>
+        <v>25165824</v>
+      </c>
+      <c r="G23" s="115">
+        <f t="shared" ref="G23:G25" si="4">F23+B23</f>
+        <v>27262976</v>
+      </c>
+      <c r="H23" s="115">
+        <f t="shared" ref="H23:H25" si="5">G23+B23</f>
+        <v>29360128</v>
+      </c>
+      <c r="I23" s="115">
+        <f t="shared" ref="I23:I25" si="6">H23+B23</f>
+        <v>31457280</v>
+      </c>
+      <c r="J23" s="115">
+        <f t="shared" ref="J23:J25" si="7">I23+B23</f>
+        <v>33554432</v>
+      </c>
+      <c r="K23" s="115">
+        <f t="shared" ref="K23:K25" si="8">J23+B23</f>
+        <v>35651584</v>
+      </c>
+      <c r="L23" s="115">
+        <f t="shared" ref="L23:L25" si="9">K23+B23</f>
+        <v>37748736</v>
+      </c>
+      <c r="M23" s="115">
+        <f t="shared" ref="M23:M25" si="10">L23+B23</f>
+        <v>39845888</v>
+      </c>
+      <c r="N23" s="117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="114" t="s">
+        <v>500</v>
+      </c>
+      <c r="B24" s="115">
+        <f t="shared" si="0"/>
+        <v>4194304</v>
+      </c>
+      <c r="C24" s="116">
+        <v>0</v>
+      </c>
+      <c r="D24" s="115">
+        <f t="shared" si="1"/>
+        <v>41943040</v>
+      </c>
+      <c r="E24" s="127">
+        <f t="shared" si="2"/>
+        <v>46137344</v>
+      </c>
+      <c r="F24" s="115">
+        <f t="shared" si="3"/>
+        <v>50331648</v>
+      </c>
+      <c r="G24" s="115">
+        <f t="shared" si="4"/>
+        <v>54525952</v>
+      </c>
+      <c r="H24" s="115">
+        <f t="shared" si="5"/>
+        <v>58720256</v>
+      </c>
+      <c r="I24" s="115">
+        <f t="shared" si="6"/>
+        <v>62914560</v>
+      </c>
+      <c r="J24" s="115">
+        <f t="shared" si="7"/>
+        <v>67108864</v>
+      </c>
+      <c r="K24" s="115">
+        <f t="shared" si="8"/>
+        <v>71303168</v>
+      </c>
+      <c r="L24" s="115">
+        <f t="shared" si="9"/>
+        <v>75497472</v>
+      </c>
+      <c r="M24" s="115">
+        <f t="shared" si="10"/>
+        <v>79691776</v>
+      </c>
+      <c r="N24" s="117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="114" t="s">
+        <v>501</v>
+      </c>
+      <c r="B25" s="115">
+        <f t="shared" si="0"/>
+        <v>8388608</v>
+      </c>
+      <c r="C25" s="116">
+        <v>0</v>
+      </c>
+      <c r="D25" s="115">
+        <f t="shared" si="1"/>
+        <v>83886080</v>
+      </c>
+      <c r="E25" s="127">
+        <f t="shared" si="2"/>
+        <v>92274688</v>
+      </c>
+      <c r="F25" s="115">
+        <f t="shared" si="3"/>
+        <v>100663296</v>
+      </c>
+      <c r="G25" s="115">
+        <f t="shared" si="4"/>
+        <v>109051904</v>
+      </c>
+      <c r="H25" s="115">
+        <f t="shared" si="5"/>
+        <v>117440512</v>
+      </c>
+      <c r="I25" s="115">
+        <f t="shared" si="6"/>
+        <v>125829120</v>
+      </c>
+      <c r="J25" s="115">
+        <f t="shared" si="7"/>
+        <v>134217728</v>
+      </c>
+      <c r="K25" s="115">
+        <f t="shared" si="8"/>
+        <v>142606336</v>
+      </c>
+      <c r="L25" s="115">
+        <f t="shared" si="9"/>
+        <v>150994944</v>
+      </c>
+      <c r="M25" s="115">
+        <f t="shared" si="10"/>
+        <v>159383552</v>
+      </c>
+      <c r="N25" s="117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="114" t="s">
+        <v>502</v>
+      </c>
+      <c r="B26" s="115">
+        <f t="shared" si="0"/>
+        <v>16777216</v>
+      </c>
+      <c r="C26" s="116">
+        <v>0</v>
+      </c>
+      <c r="D26" s="115">
+        <f t="shared" ref="D26:D29" si="11">D25*2</f>
+        <v>167772160</v>
+      </c>
+      <c r="E26" s="127">
+        <f t="shared" ref="E26:E29" si="12">D26+B26</f>
+        <v>184549376</v>
+      </c>
+      <c r="F26" s="115">
+        <f t="shared" ref="F26:F29" si="13">E26+B26</f>
+        <v>201326592</v>
+      </c>
+      <c r="G26" s="115">
+        <f t="shared" ref="G26:G29" si="14">F26+B26</f>
+        <v>218103808</v>
+      </c>
+      <c r="H26" s="115">
+        <f t="shared" ref="H26:H29" si="15">G26+B26</f>
+        <v>234881024</v>
+      </c>
+      <c r="I26" s="115">
+        <f t="shared" ref="I26:I29" si="16">H26+B26</f>
+        <v>251658240</v>
+      </c>
+      <c r="J26" s="115">
+        <f t="shared" ref="J26:J29" si="17">I26+B26</f>
+        <v>268435456</v>
+      </c>
+      <c r="K26" s="115">
+        <f t="shared" ref="K26:K29" si="18">J26+B26</f>
+        <v>285212672</v>
+      </c>
+      <c r="L26" s="115">
+        <f t="shared" ref="L26:L29" si="19">K26+B26</f>
+        <v>301989888</v>
+      </c>
+      <c r="M26" s="115">
+        <f t="shared" ref="M26:M29" si="20">L26+B26</f>
+        <v>318767104</v>
+      </c>
+      <c r="N26" s="117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="114" t="s">
+        <v>503</v>
+      </c>
+      <c r="B27" s="115">
+        <f t="shared" si="0"/>
+        <v>33554432</v>
+      </c>
+      <c r="C27" s="116">
+        <v>0</v>
+      </c>
+      <c r="D27" s="115">
+        <f t="shared" si="11"/>
+        <v>335544320</v>
+      </c>
+      <c r="E27" s="127">
+        <f t="shared" si="12"/>
+        <v>369098752</v>
+      </c>
+      <c r="F27" s="115">
+        <f t="shared" si="13"/>
+        <v>402653184</v>
+      </c>
+      <c r="G27" s="115">
+        <f t="shared" si="14"/>
+        <v>436207616</v>
+      </c>
+      <c r="H27" s="115">
+        <f t="shared" si="15"/>
+        <v>469762048</v>
+      </c>
+      <c r="I27" s="115">
+        <f t="shared" si="16"/>
+        <v>503316480</v>
+      </c>
+      <c r="J27" s="115">
+        <f t="shared" si="17"/>
+        <v>536870912</v>
+      </c>
+      <c r="K27" s="115">
+        <f t="shared" si="18"/>
+        <v>570425344</v>
+      </c>
+      <c r="L27" s="115">
+        <f t="shared" si="19"/>
+        <v>603979776</v>
+      </c>
+      <c r="M27" s="115">
+        <f t="shared" si="20"/>
+        <v>637534208</v>
+      </c>
+      <c r="N27" s="117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="114" t="s">
+        <v>504</v>
+      </c>
+      <c r="B28" s="115">
+        <f t="shared" si="0"/>
+        <v>67108864</v>
+      </c>
+      <c r="C28" s="116">
+        <v>0</v>
+      </c>
+      <c r="D28" s="115">
+        <f t="shared" si="11"/>
+        <v>671088640</v>
+      </c>
+      <c r="E28" s="127">
+        <f t="shared" si="12"/>
+        <v>738197504</v>
+      </c>
+      <c r="F28" s="115">
+        <f t="shared" si="13"/>
+        <v>805306368</v>
+      </c>
+      <c r="G28" s="115">
+        <f t="shared" si="14"/>
+        <v>872415232</v>
+      </c>
+      <c r="H28" s="115">
+        <f t="shared" si="15"/>
+        <v>939524096</v>
+      </c>
+      <c r="I28" s="115">
+        <f t="shared" si="16"/>
+        <v>1006632960</v>
+      </c>
+      <c r="J28" s="115">
+        <f t="shared" si="17"/>
+        <v>1073741824</v>
+      </c>
+      <c r="K28" s="115">
+        <f t="shared" si="18"/>
+        <v>1140850688</v>
+      </c>
+      <c r="L28" s="115">
+        <f t="shared" si="19"/>
+        <v>1207959552</v>
+      </c>
+      <c r="M28" s="115">
+        <f t="shared" si="20"/>
+        <v>1275068416</v>
+      </c>
+      <c r="N28" s="117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="114" t="s">
+        <v>505</v>
+      </c>
+      <c r="B29" s="115">
+        <f t="shared" si="0"/>
+        <v>134217728</v>
+      </c>
+      <c r="C29" s="116">
+        <v>0</v>
+      </c>
+      <c r="D29" s="115">
+        <f t="shared" si="11"/>
+        <v>1342177280</v>
+      </c>
+      <c r="E29" s="127">
+        <f t="shared" si="12"/>
+        <v>1476395008</v>
+      </c>
+      <c r="F29" s="115">
+        <f t="shared" si="13"/>
+        <v>1610612736</v>
+      </c>
+      <c r="G29" s="115">
+        <f t="shared" si="14"/>
+        <v>1744830464</v>
+      </c>
+      <c r="H29" s="115">
+        <f t="shared" si="15"/>
+        <v>1879048192</v>
+      </c>
+      <c r="I29" s="115">
+        <f t="shared" si="16"/>
+        <v>2013265920</v>
+      </c>
+      <c r="J29" s="115">
+        <f t="shared" si="17"/>
+        <v>2147483648</v>
+      </c>
+      <c r="K29" s="115">
+        <f t="shared" si="18"/>
+        <v>2281701376</v>
+      </c>
+      <c r="L29" s="115">
+        <f t="shared" si="19"/>
+        <v>2415919104</v>
+      </c>
+      <c r="M29" s="115">
+        <f t="shared" si="20"/>
+        <v>2550136832</v>
+      </c>
+      <c r="N29" s="117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -17866,10 +18536,10 @@
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17884,46 +18554,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="104" t="s">
         <v>421</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="I1" s="105" t="s">
+      <c r="I1" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="105" t="s">
+      <c r="K1" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="105" t="s">
+      <c r="L1" s="104" t="s">
         <v>215</v>
       </c>
-      <c r="M1" s="105" t="s">
+      <c r="M1" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="N1" s="105" t="s">
+      <c r="N1" s="104" t="s">
         <v>219</v>
       </c>
     </row>
@@ -17940,34 +18610,34 @@
       <c r="D2" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="190" t="s">
+      <c r="E2" s="128" t="s">
         <v>424</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="129">
         <v>0</v>
       </c>
-      <c r="G2" s="190" t="s">
+      <c r="G2" s="128" t="s">
         <v>423</v>
       </c>
-      <c r="H2" s="190">
+      <c r="H2" s="128">
         <v>300</v>
       </c>
-      <c r="I2" s="190">
+      <c r="I2" s="128">
         <v>400</v>
       </c>
-      <c r="J2" s="190">
+      <c r="J2" s="128">
         <v>500</v>
       </c>
-      <c r="K2" s="190">
+      <c r="K2" s="128">
         <v>600</v>
       </c>
-      <c r="L2" s="190">
+      <c r="L2" s="128">
         <v>700</v>
       </c>
-      <c r="M2" s="190">
+      <c r="M2" s="128">
         <v>800</v>
       </c>
-      <c r="N2" s="190">
+      <c r="N2" s="128">
         <v>900</v>
       </c>
     </row>
@@ -17984,34 +18654,34 @@
       <c r="D3" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="129">
         <v>400</v>
       </c>
-      <c r="F3" s="190">
+      <c r="F3" s="128">
         <v>1300</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="129">
         <v>1700</v>
       </c>
-      <c r="H3" s="190">
+      <c r="H3" s="128">
         <v>2100</v>
       </c>
-      <c r="I3" s="190">
+      <c r="I3" s="128">
         <v>2500</v>
       </c>
-      <c r="J3" s="190">
+      <c r="J3" s="128">
         <v>2900</v>
       </c>
-      <c r="K3" s="190">
+      <c r="K3" s="128">
         <v>3300</v>
       </c>
-      <c r="L3" s="190">
+      <c r="L3" s="128">
         <v>3700</v>
       </c>
-      <c r="M3" s="190">
+      <c r="M3" s="128">
         <v>4100</v>
       </c>
-      <c r="N3" s="190">
+      <c r="N3" s="128">
         <v>4500</v>
       </c>
     </row>
@@ -18028,34 +18698,34 @@
       <c r="D4" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="129">
         <v>1600</v>
       </c>
-      <c r="F4" s="190">
+      <c r="F4" s="128">
         <v>6100</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="129">
         <v>7700</v>
       </c>
-      <c r="H4" s="190">
+      <c r="H4" s="128">
         <v>9300</v>
       </c>
-      <c r="I4" s="190">
+      <c r="I4" s="128">
         <v>10900</v>
       </c>
-      <c r="J4" s="190">
+      <c r="J4" s="128">
         <v>12500</v>
       </c>
-      <c r="K4" s="190">
+      <c r="K4" s="128">
         <v>14100</v>
       </c>
-      <c r="L4" s="190">
+      <c r="L4" s="128">
         <v>15700</v>
       </c>
-      <c r="M4" s="190">
+      <c r="M4" s="128">
         <v>17300</v>
       </c>
-      <c r="N4" s="190">
+      <c r="N4" s="128">
         <v>18900</v>
       </c>
     </row>
@@ -18072,34 +18742,34 @@
       <c r="D5" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="129">
         <v>8000</v>
       </c>
-      <c r="F5" s="190">
+      <c r="F5" s="128">
         <v>26900</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="129">
         <v>34900</v>
       </c>
-      <c r="H5" s="190">
+      <c r="H5" s="128">
         <v>42900</v>
       </c>
-      <c r="I5" s="190">
+      <c r="I5" s="128">
         <v>50900</v>
       </c>
-      <c r="J5" s="190">
+      <c r="J5" s="128">
         <v>58900</v>
       </c>
-      <c r="K5" s="190">
+      <c r="K5" s="128">
         <v>66900</v>
       </c>
-      <c r="L5" s="190">
+      <c r="L5" s="128">
         <v>74900</v>
       </c>
-      <c r="M5" s="190">
+      <c r="M5" s="128">
         <v>82900</v>
       </c>
-      <c r="N5" s="190">
+      <c r="N5" s="128">
         <v>90900</v>
       </c>
     </row>
@@ -18116,34 +18786,34 @@
       <c r="D6" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="129">
         <v>48000</v>
       </c>
-      <c r="F6" s="190">
+      <c r="F6" s="128">
         <v>138900</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="129">
         <v>186900</v>
       </c>
-      <c r="H6" s="190">
+      <c r="H6" s="128">
         <v>234900</v>
       </c>
-      <c r="I6" s="190">
+      <c r="I6" s="128">
         <v>282900</v>
       </c>
-      <c r="J6" s="190">
+      <c r="J6" s="128">
         <v>330900</v>
       </c>
-      <c r="K6" s="190">
+      <c r="K6" s="128">
         <v>378900</v>
       </c>
-      <c r="L6" s="190">
+      <c r="L6" s="128">
         <v>426900</v>
       </c>
-      <c r="M6" s="190">
+      <c r="M6" s="128">
         <v>474900</v>
       </c>
-      <c r="N6" s="190">
+      <c r="N6" s="128">
         <v>522900</v>
       </c>
     </row>
@@ -18160,34 +18830,34 @@
       <c r="D7" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="129">
         <v>336000</v>
       </c>
-      <c r="F7" s="190">
+      <c r="F7" s="128">
         <v>858900</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="129">
         <v>1194900</v>
       </c>
-      <c r="H7" s="190">
+      <c r="H7" s="128">
         <v>1530900</v>
       </c>
-      <c r="I7" s="190">
+      <c r="I7" s="128">
         <v>1866900</v>
       </c>
-      <c r="J7" s="190">
+      <c r="J7" s="128">
         <v>2202900</v>
       </c>
-      <c r="K7" s="190">
+      <c r="K7" s="128">
         <v>2538900</v>
       </c>
-      <c r="L7" s="190">
+      <c r="L7" s="128">
         <v>2874900</v>
       </c>
-      <c r="M7" s="190">
+      <c r="M7" s="128">
         <v>3210900</v>
       </c>
-      <c r="N7" s="190">
+      <c r="N7" s="128">
         <v>3546900</v>
       </c>
     </row>
@@ -18204,34 +18874,34 @@
       <c r="D8" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="129">
         <v>2688000</v>
       </c>
-      <c r="F8" s="190">
+      <c r="F8" s="128">
         <v>6234900</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="129">
         <v>8922900</v>
       </c>
-      <c r="H8" s="190">
+      <c r="H8" s="128">
         <v>11610900</v>
       </c>
-      <c r="I8" s="190">
+      <c r="I8" s="128">
         <v>14298900</v>
       </c>
-      <c r="J8" s="190">
+      <c r="J8" s="128">
         <v>16986900</v>
       </c>
-      <c r="K8" s="190">
+      <c r="K8" s="128">
         <v>19674900</v>
       </c>
-      <c r="L8" s="190">
+      <c r="L8" s="128">
         <v>22362900</v>
       </c>
-      <c r="M8" s="190">
+      <c r="M8" s="128">
         <v>25050900</v>
       </c>
-      <c r="N8" s="190">
+      <c r="N8" s="128">
         <v>27738900</v>
       </c>
     </row>
@@ -18248,34 +18918,34 @@
       <c r="D9" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="129">
         <v>24192000</v>
       </c>
-      <c r="F9" s="190">
+      <c r="F9" s="128">
         <v>51930900</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="129">
         <v>76122900</v>
       </c>
-      <c r="H9" s="190">
+      <c r="H9" s="128">
         <v>100314900</v>
       </c>
-      <c r="I9" s="190">
+      <c r="I9" s="128">
         <v>124506900</v>
       </c>
-      <c r="J9" s="190">
+      <c r="J9" s="128">
         <v>148698900</v>
       </c>
-      <c r="K9" s="190">
+      <c r="K9" s="128">
         <v>172890900</v>
       </c>
-      <c r="L9" s="190">
+      <c r="L9" s="128">
         <v>197082900</v>
       </c>
-      <c r="M9" s="190">
+      <c r="M9" s="128">
         <v>221274900</v>
       </c>
-      <c r="N9" s="190">
+      <c r="N9" s="128">
         <v>245466900</v>
       </c>
     </row>
@@ -18292,34 +18962,34 @@
       <c r="D10" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="129">
         <v>241920000</v>
       </c>
-      <c r="F10" s="190">
+      <c r="F10" s="128">
         <v>487386900</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="129">
         <v>729306900</v>
       </c>
-      <c r="H10" s="190">
+      <c r="H10" s="128">
         <v>971226900</v>
       </c>
-      <c r="I10" s="190">
+      <c r="I10" s="128">
         <v>1213146900</v>
       </c>
-      <c r="J10" s="190">
+      <c r="J10" s="128">
         <v>1455066900</v>
       </c>
-      <c r="K10" s="190">
+      <c r="K10" s="128">
         <v>1696986900</v>
       </c>
-      <c r="L10" s="190">
+      <c r="L10" s="128">
         <v>1938906900</v>
       </c>
-      <c r="M10" s="190">
+      <c r="M10" s="128">
         <v>2180826900</v>
       </c>
-      <c r="N10" s="190">
+      <c r="N10" s="128">
         <v>2422746900</v>
       </c>
     </row>
@@ -18336,34 +19006,34 @@
       <c r="D11" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="129">
         <v>2661120000</v>
       </c>
-      <c r="F11" s="190">
+      <c r="F11" s="128">
         <v>5083866900</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="129">
         <v>7744986900</v>
       </c>
-      <c r="H11" s="190">
+      <c r="H11" s="128">
         <v>10406106900</v>
       </c>
-      <c r="I11" s="190">
+      <c r="I11" s="128">
         <v>13067226900</v>
       </c>
-      <c r="J11" s="190">
+      <c r="J11" s="128">
         <v>15728346900</v>
       </c>
-      <c r="K11" s="190">
+      <c r="K11" s="128">
         <v>18389466900</v>
       </c>
-      <c r="L11" s="190">
+      <c r="L11" s="128">
         <v>21050586900</v>
       </c>
-      <c r="M11" s="190">
+      <c r="M11" s="128">
         <v>23711706900</v>
       </c>
-      <c r="N11" s="190">
+      <c r="N11" s="128">
         <v>26372826900</v>
       </c>
     </row>
@@ -18380,34 +19050,34 @@
       <c r="D12" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="129">
         <v>31933440000</v>
       </c>
-      <c r="F12" s="190">
+      <c r="F12" s="128">
         <v>58306266900</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="129">
         <v>90239706900</v>
       </c>
-      <c r="H12" s="190">
+      <c r="H12" s="128">
         <v>122173146900</v>
       </c>
-      <c r="I12" s="190">
+      <c r="I12" s="128">
         <v>154106586900</v>
       </c>
-      <c r="J12" s="190">
+      <c r="J12" s="128">
         <v>186040026900</v>
       </c>
-      <c r="K12" s="190">
+      <c r="K12" s="128">
         <v>217973466900</v>
       </c>
-      <c r="L12" s="190">
+      <c r="L12" s="128">
         <v>249906906900</v>
       </c>
-      <c r="M12" s="190">
+      <c r="M12" s="128">
         <v>281840346900</v>
       </c>
-      <c r="N12" s="190">
+      <c r="N12" s="128">
         <v>313773786900</v>
       </c>
     </row>
@@ -18424,34 +19094,34 @@
       <c r="D13" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="129">
         <v>415134720000</v>
       </c>
-      <c r="F13" s="190">
+      <c r="F13" s="128">
         <v>728908506900</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="129">
         <v>1144043226900</v>
       </c>
-      <c r="H13" s="190">
+      <c r="H13" s="128">
         <v>1559177946900</v>
       </c>
-      <c r="I13" s="190">
+      <c r="I13" s="128">
         <v>1974312666900</v>
       </c>
-      <c r="J13" s="190">
+      <c r="J13" s="128">
         <v>2389447386900</v>
       </c>
-      <c r="K13" s="190">
+      <c r="K13" s="128">
         <v>2804582106900</v>
       </c>
-      <c r="L13" s="190">
+      <c r="L13" s="128">
         <v>3219716826900</v>
       </c>
-      <c r="M13" s="190">
+      <c r="M13" s="128">
         <v>3634851546900</v>
       </c>
-      <c r="N13" s="190">
+      <c r="N13" s="128">
         <v>4049986266900</v>
       </c>
     </row>
@@ -18468,34 +19138,34 @@
       <c r="D14" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="129">
         <v>5811886080000</v>
       </c>
-      <c r="F14" s="190">
+      <c r="F14" s="128">
         <v>9861872346900</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="129">
         <v>15673758426900</v>
       </c>
-      <c r="H14" s="190">
+      <c r="H14" s="128">
         <v>21485644506900</v>
       </c>
-      <c r="I14" s="190">
+      <c r="I14" s="128">
         <v>27297530586900</v>
       </c>
-      <c r="J14" s="190">
+      <c r="J14" s="128">
         <v>33109416666900</v>
       </c>
-      <c r="K14" s="190">
+      <c r="K14" s="128">
         <v>38921302746900</v>
       </c>
-      <c r="L14" s="190">
+      <c r="L14" s="128">
         <v>44733188826900</v>
       </c>
-      <c r="M14" s="190">
+      <c r="M14" s="128">
         <v>50545074906900</v>
       </c>
-      <c r="N14" s="190">
+      <c r="N14" s="128">
         <v>56356960986900</v>
       </c>
     </row>
@@ -18512,34 +19182,34 @@
       <c r="D15" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="129">
         <v>87178291200000</v>
       </c>
-      <c r="F15" s="190">
+      <c r="F15" s="128">
         <v>143535252186900</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="129">
         <v>230713543386900</v>
       </c>
-      <c r="H15" s="190">
+      <c r="H15" s="128">
         <v>317891834586900</v>
       </c>
-      <c r="I15" s="190">
+      <c r="I15" s="128">
         <v>405070125786900</v>
       </c>
-      <c r="J15" s="190">
+      <c r="J15" s="128">
         <v>492248416986900</v>
       </c>
-      <c r="K15" s="190">
+      <c r="K15" s="128">
         <v>579426708186900</v>
       </c>
-      <c r="L15" s="190">
+      <c r="L15" s="128">
         <v>666604999386900</v>
       </c>
-      <c r="M15" s="190">
+      <c r="M15" s="128">
         <v>753783290586900</v>
       </c>
-      <c r="N15" s="190">
+      <c r="N15" s="128">
         <v>840961581786900</v>
       </c>
     </row>
@@ -18556,34 +19226,34 @@
       <c r="D16" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="129">
         <v>1394852659200000</v>
       </c>
-      <c r="F16" s="190">
+      <c r="F16" s="128">
         <v>2235814240986900</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="129">
         <v>3630666900186900</v>
       </c>
-      <c r="H16" s="190">
+      <c r="H16" s="128">
         <v>5025519559386900</v>
       </c>
-      <c r="I16" s="190">
+      <c r="I16" s="128">
         <v>6420372218586900</v>
       </c>
-      <c r="J16" s="190">
+      <c r="J16" s="128">
         <v>7815224877786900</v>
       </c>
-      <c r="K16" s="190">
+      <c r="K16" s="128">
         <v>9210077536986900</v>
       </c>
-      <c r="L16" s="190">
+      <c r="L16" s="128">
         <v>1.06049301961869E+16</v>
       </c>
-      <c r="M16" s="190">
+      <c r="M16" s="128">
         <v>1.19997828553869E+16</v>
       </c>
-      <c r="N16" s="190">
+      <c r="N16" s="128">
         <v>1.33946355145869E+16</v>
       </c>
     </row>
@@ -18600,34 +19270,34 @@
       <c r="D17" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="129">
         <v>2.37124952064E+16</v>
       </c>
-      <c r="F17" s="190">
+      <c r="F17" s="128">
         <v>3.7107130720986896E+16</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="129">
         <v>6.0819625927386896E+16</v>
       </c>
-      <c r="H17" s="190">
+      <c r="H17" s="128">
         <v>8.4532121133786896E+16</v>
       </c>
-      <c r="I17" s="190">
+      <c r="I17" s="128">
         <v>1.082446163401869E+17</v>
       </c>
-      <c r="J17" s="190">
+      <c r="J17" s="128">
         <v>1.319571115465869E+17</v>
       </c>
-      <c r="K17" s="190">
+      <c r="K17" s="128">
         <v>1.5566960675298688E+17</v>
       </c>
-      <c r="L17" s="190">
+      <c r="L17" s="128">
         <v>1.7938210195938688E+17</v>
       </c>
-      <c r="M17" s="190">
+      <c r="M17" s="128">
         <v>2.0309459716578688E+17</v>
       </c>
-      <c r="N17" s="190">
+      <c r="N17" s="128">
         <v>2.2680709237218688E+17</v>
       </c>
     </row>
@@ -18644,34 +19314,34 @@
       <c r="D18" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="129">
         <v>4.268249137152E+17</v>
       </c>
-      <c r="F18" s="190">
+      <c r="F18" s="128">
         <v>6.5363200608738688E+17</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="129">
         <v>1.0804569198025869E+18</v>
       </c>
-      <c r="H18" s="190">
+      <c r="H18" s="128">
         <v>1.5072818335177869E+18</v>
       </c>
-      <c r="I18" s="190">
+      <c r="I18" s="128">
         <v>1.9341067472329869E+18</v>
       </c>
-      <c r="J18" s="190">
+      <c r="J18" s="128">
         <v>2.3609316609481871E+18</v>
       </c>
-      <c r="K18" s="190">
+      <c r="K18" s="128">
         <v>2.7877565746633871E+18</v>
       </c>
-      <c r="L18" s="190">
+      <c r="L18" s="128">
         <v>3.2145814883785871E+18</v>
       </c>
-      <c r="M18" s="190">
+      <c r="M18" s="128">
         <v>3.6414064020937871E+18</v>
       </c>
-      <c r="N18" s="190">
+      <c r="N18" s="128">
         <v>4.0682313158089871E+18</v>
       </c>
     </row>
@@ -18688,34 +19358,34 @@
       <c r="D19" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="129">
         <v>8.1096733605888E+18</v>
       </c>
-      <c r="F19" s="190">
+      <c r="F19" s="128">
         <v>1.2177904676397787E+19</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="129">
         <v>2.0287578036986585E+19</v>
       </c>
-      <c r="H19" s="190">
+      <c r="H19" s="128">
         <v>2.8397251397575385E+19</v>
       </c>
-      <c r="I19" s="190">
+      <c r="I19" s="128">
         <v>3.6506924758164185E+19</v>
       </c>
-      <c r="J19" s="190">
+      <c r="J19" s="128">
         <v>4.4616598118752985E+19</v>
       </c>
-      <c r="K19" s="190">
+      <c r="K19" s="128">
         <v>5.2726271479341785E+19</v>
       </c>
-      <c r="L19" s="190">
+      <c r="L19" s="128">
         <v>6.0835944839930585E+19</v>
       </c>
-      <c r="M19" s="190">
+      <c r="M19" s="128">
         <v>6.8945618200519385E+19</v>
       </c>
-      <c r="N19" s="190">
+      <c r="N19" s="128">
         <v>7.7055291561108177E+19</v>
       </c>
     </row>
@@ -18732,34 +19402,34 @@
       <c r="D20" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="129">
         <v>1.62193467211776E+20</v>
       </c>
-      <c r="F20" s="190">
+      <c r="F20" s="128">
         <v>2.3924875877288418E+20</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="129">
         <v>4.0144222598466018E+20</v>
       </c>
-      <c r="H20" s="190">
+      <c r="H20" s="128">
         <v>5.6363569319643618E+20</v>
       </c>
-      <c r="I20" s="190">
+      <c r="I20" s="128">
         <v>7.2582916040821218E+20</v>
       </c>
-      <c r="J20" s="190">
+      <c r="J20" s="128">
         <v>8.8802262761998818E+20</v>
       </c>
-      <c r="K20" s="190">
+      <c r="K20" s="128">
         <v>1.0502160948317642E+21</v>
       </c>
-      <c r="L20" s="190">
+      <c r="L20" s="128">
         <v>1.21240956204354E+21</v>
       </c>
-      <c r="M20" s="190">
+      <c r="M20" s="128">
         <v>1.374603029255316E+21</v>
       </c>
-      <c r="N20" s="190">
+      <c r="N20" s="128">
         <v>1.536796496467092E+21</v>
       </c>
     </row>
@@ -18776,35 +19446,383 @@
       <c r="D21" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="129">
         <v>3.406062811447296E+21</v>
       </c>
-      <c r="F21" s="190">
+      <c r="F21" s="128">
         <v>4.942859307914388E+21</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="129">
         <v>8.348922119361684E+21</v>
       </c>
-      <c r="H21" s="190">
+      <c r="H21" s="128">
         <v>1.175498493080898E+22</v>
       </c>
-      <c r="I21" s="190">
+      <c r="I21" s="128">
         <v>1.5161047742256276E+22</v>
       </c>
-      <c r="J21" s="190">
+      <c r="J21" s="128">
         <v>1.8567110553703572E+22</v>
       </c>
-      <c r="K21" s="190">
+      <c r="K21" s="128">
         <v>2.1973173365150866E+22</v>
       </c>
-      <c r="L21" s="190">
+      <c r="L21" s="128">
         <v>2.5379236176598164E+22</v>
       </c>
-      <c r="M21" s="190">
+      <c r="M21" s="128">
         <v>2.8785298988045462E+22</v>
       </c>
-      <c r="N21" s="190">
+      <c r="N21" s="128">
         <v>3.219136179949276E+22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B22" s="120" t="s">
+        <v>506</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="129">
+        <v>1.3624251245789184E+22</v>
+      </c>
+      <c r="F22" s="129">
+        <v>4.5815613045281944E+22</v>
+      </c>
+      <c r="G22" s="129">
+        <v>5.9439864291071128E+22</v>
+      </c>
+      <c r="H22" s="129">
+        <v>7.3064115536860312E+22</v>
+      </c>
+      <c r="I22" s="129">
+        <v>8.6688366782649505E+22</v>
+      </c>
+      <c r="J22" s="129">
+        <v>1.003126180284387E+23</v>
+      </c>
+      <c r="K22" s="129">
+        <v>1.1393686927422789E+23</v>
+      </c>
+      <c r="L22" s="129">
+        <v>1.2756112052001708E+23</v>
+      </c>
+      <c r="M22" s="129">
+        <v>1.4118537176580627E+23</v>
+      </c>
+      <c r="N22" s="129">
+        <v>1.5480962301159547E+23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B23" s="120" t="s">
+        <v>507</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="E23" s="129">
+        <v>5.4497004983156736E+22</v>
+      </c>
+      <c r="F23" s="129">
+        <v>2.093066279947522E+23</v>
+      </c>
+      <c r="G23" s="129">
+        <v>2.6380363297790894E+23</v>
+      </c>
+      <c r="H23" s="129">
+        <v>3.1830063796106567E+23</v>
+      </c>
+      <c r="I23" s="129">
+        <v>3.7279764294422244E+23</v>
+      </c>
+      <c r="J23" s="129">
+        <v>4.2729464792737921E+23</v>
+      </c>
+      <c r="K23" s="129">
+        <v>4.8179165291053598E+23</v>
+      </c>
+      <c r="L23" s="129">
+        <v>5.3628865789369275E+23</v>
+      </c>
+      <c r="M23" s="129">
+        <v>5.9078566287684952E+23</v>
+      </c>
+      <c r="N23" s="129">
+        <v>6.4528266786000629E+23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B24" s="120" t="s">
+        <v>508</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="E24" s="129">
+        <v>2.1798801993262694E+23</v>
+      </c>
+      <c r="F24" s="129">
+        <v>8.6327068779263324E+23</v>
+      </c>
+      <c r="G24" s="129">
+        <v>1.0812587077252602E+24</v>
+      </c>
+      <c r="H24" s="129">
+        <v>1.2992467276578873E+24</v>
+      </c>
+      <c r="I24" s="129">
+        <v>1.5172347475905143E+24</v>
+      </c>
+      <c r="J24" s="129">
+        <v>1.7352227675231414E+24</v>
+      </c>
+      <c r="K24" s="129">
+        <v>1.9532107874557685E+24</v>
+      </c>
+      <c r="L24" s="129">
+        <v>2.1711988073883956E+24</v>
+      </c>
+      <c r="M24" s="129">
+        <v>2.3891868273210226E+24</v>
+      </c>
+      <c r="N24" s="129">
+        <v>2.6071748472536497E+24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B25" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="E25" s="129">
+        <v>8.7195207973050778E+23</v>
+      </c>
+      <c r="F25" s="129">
+        <v>3.4791269269841575E+24</v>
+      </c>
+      <c r="G25" s="129">
+        <v>4.3510790067146653E+24</v>
+      </c>
+      <c r="H25" s="129">
+        <v>5.2230310864451725E+24</v>
+      </c>
+      <c r="I25" s="129">
+        <v>6.0949831661756808E+24</v>
+      </c>
+      <c r="J25" s="129">
+        <v>6.9669352459061891E+24</v>
+      </c>
+      <c r="K25" s="129">
+        <v>7.8388873256366975E+24</v>
+      </c>
+      <c r="L25" s="129">
+        <v>8.7108394053672058E+24</v>
+      </c>
+      <c r="M25" s="129">
+        <v>9.5827914850977141E+24</v>
+      </c>
+      <c r="N25" s="129">
+        <v>1.0454743564828222E+25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B26" s="120" t="s">
+        <v>510</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="E26" s="129">
+        <v>3.4878083189220311E+24</v>
+      </c>
+      <c r="F26" s="129">
+        <v>1.3942551883750253E+25</v>
+      </c>
+      <c r="G26" s="129">
+        <v>1.7430360202672285E+25</v>
+      </c>
+      <c r="H26" s="129">
+        <v>2.0918168521594316E+25</v>
+      </c>
+      <c r="I26" s="129">
+        <v>2.4405976840516345E+25</v>
+      </c>
+      <c r="J26" s="129">
+        <v>2.7893785159438378E+25</v>
+      </c>
+      <c r="K26" s="129">
+        <v>3.1381593478360411E+25</v>
+      </c>
+      <c r="L26" s="129">
+        <v>3.4869401797282444E+25</v>
+      </c>
+      <c r="M26" s="129">
+        <v>3.8357210116204478E+25</v>
+      </c>
+      <c r="N26" s="129">
+        <v>4.1845018435126511E+25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B27" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="E27" s="129">
+        <v>1.3951233275688124E+25</v>
+      </c>
+      <c r="F27" s="129">
+        <v>5.5796251710814635E+25</v>
+      </c>
+      <c r="G27" s="129">
+        <v>6.974748498650276E+25</v>
+      </c>
+      <c r="H27" s="129">
+        <v>8.3698718262190884E+25</v>
+      </c>
+      <c r="I27" s="129">
+        <v>9.7649951537879E+25</v>
+      </c>
+      <c r="J27" s="129">
+        <v>1.1160118481356713E+26</v>
+      </c>
+      <c r="K27" s="129">
+        <v>1.2555241808925527E+26</v>
+      </c>
+      <c r="L27" s="129">
+        <v>1.395036513649434E+26</v>
+      </c>
+      <c r="M27" s="129">
+        <v>1.5345488464063153E+26</v>
+      </c>
+      <c r="N27" s="129">
+        <v>1.6740611791631967E+26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="E28" s="129">
+        <v>5.5804933102752498E+25</v>
+      </c>
+      <c r="F28" s="129">
+        <v>2.2321105101907216E+26</v>
+      </c>
+      <c r="G28" s="129">
+        <v>2.7901598412182466E+26</v>
+      </c>
+      <c r="H28" s="129">
+        <v>3.3482091722457719E+26</v>
+      </c>
+      <c r="I28" s="129">
+        <v>3.9062585032732972E+26</v>
+      </c>
+      <c r="J28" s="129">
+        <v>4.4643078343008226E+26</v>
+      </c>
+      <c r="K28" s="129">
+        <v>5.0223571653283479E+26</v>
+      </c>
+      <c r="L28" s="129">
+        <v>5.5804064963558732E+26</v>
+      </c>
+      <c r="M28" s="129">
+        <v>6.1384558273833985E+26</v>
+      </c>
+      <c r="N28" s="129">
+        <v>6.6965051584109238E+26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="E29" s="129">
+        <v>2.2321973241100999E+26</v>
+      </c>
+      <c r="F29" s="129">
+        <v>8.9287024825210238E+26</v>
+      </c>
+      <c r="G29" s="129">
+        <v>1.1160899806631124E+27</v>
+      </c>
+      <c r="H29" s="129">
+        <v>1.3393097130741224E+27</v>
+      </c>
+      <c r="I29" s="129">
+        <v>1.5625294454851325E+27</v>
+      </c>
+      <c r="J29" s="129">
+        <v>1.7857491778961426E+27</v>
+      </c>
+      <c r="K29" s="129">
+        <v>2.0089689103071527E+27</v>
+      </c>
+      <c r="L29" s="129">
+        <v>2.2321886427181629E+27</v>
+      </c>
+      <c r="M29" s="129">
+        <v>2.455408375129173E+27</v>
+      </c>
+      <c r="N29" s="129">
+        <v>2.6786281075401831E+27</v>
       </c>
     </row>
   </sheetData>
@@ -18836,214 +19854,214 @@
   <sheetData>
     <row r="1" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="179" t="s">
         <v>459</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="196"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="193"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="193"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="194"/>
-      <c r="Q3" s="194"/>
-      <c r="R3" s="194"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="194"/>
-      <c r="U3" s="194"/>
-      <c r="V3" s="194"/>
-      <c r="W3" s="194"/>
-      <c r="X3" s="194"/>
-      <c r="Y3" s="197"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="196"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4" s="193"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="194"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="194"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="194"/>
-      <c r="P4" s="194"/>
-      <c r="Q4" s="194"/>
-      <c r="R4" s="194"/>
-      <c r="S4" s="194"/>
-      <c r="T4" s="194"/>
-      <c r="U4" s="194"/>
-      <c r="V4" s="194"/>
-      <c r="W4" s="194"/>
-      <c r="X4" s="194"/>
-      <c r="Y4" s="197"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="196"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="194"/>
-      <c r="P5" s="194"/>
-      <c r="Q5" s="194"/>
-      <c r="R5" s="194"/>
-      <c r="S5" s="194"/>
-      <c r="T5" s="194"/>
-      <c r="U5" s="194"/>
-      <c r="V5" s="194"/>
-      <c r="W5" s="194"/>
-      <c r="X5" s="194"/>
-      <c r="Y5" s="197"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="195"/>
+      <c r="K5" s="195"/>
+      <c r="L5" s="195"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="195"/>
+      <c r="P5" s="195"/>
+      <c r="Q5" s="195"/>
+      <c r="R5" s="195"/>
+      <c r="S5" s="195"/>
+      <c r="T5" s="195"/>
+      <c r="U5" s="195"/>
+      <c r="V5" s="195"/>
+      <c r="W5" s="195"/>
+      <c r="X5" s="195"/>
+      <c r="Y5" s="196"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="193"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="194"/>
-      <c r="S6" s="194"/>
-      <c r="T6" s="194"/>
-      <c r="U6" s="194"/>
-      <c r="V6" s="194"/>
-      <c r="W6" s="194"/>
-      <c r="X6" s="194"/>
-      <c r="Y6" s="197"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
+      <c r="R6" s="195"/>
+      <c r="S6" s="195"/>
+      <c r="T6" s="195"/>
+      <c r="U6" s="195"/>
+      <c r="V6" s="195"/>
+      <c r="W6" s="195"/>
+      <c r="X6" s="195"/>
+      <c r="Y6" s="196"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="193"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="194"/>
-      <c r="N7" s="194"/>
-      <c r="O7" s="194"/>
-      <c r="P7" s="194"/>
-      <c r="Q7" s="194"/>
-      <c r="R7" s="194"/>
-      <c r="S7" s="194"/>
-      <c r="T7" s="194"/>
-      <c r="U7" s="194"/>
-      <c r="V7" s="194"/>
-      <c r="W7" s="194"/>
-      <c r="X7" s="194"/>
-      <c r="Y7" s="197"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="195"/>
+      <c r="N7" s="195"/>
+      <c r="O7" s="195"/>
+      <c r="P7" s="195"/>
+      <c r="Q7" s="195"/>
+      <c r="R7" s="195"/>
+      <c r="S7" s="195"/>
+      <c r="T7" s="195"/>
+      <c r="U7" s="195"/>
+      <c r="V7" s="195"/>
+      <c r="W7" s="195"/>
+      <c r="X7" s="195"/>
+      <c r="Y7" s="196"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B8" s="193"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
-      <c r="N8" s="194"/>
-      <c r="O8" s="194"/>
-      <c r="P8" s="194"/>
-      <c r="Q8" s="194"/>
-      <c r="R8" s="194"/>
-      <c r="S8" s="194"/>
-      <c r="T8" s="194"/>
-      <c r="U8" s="194"/>
-      <c r="V8" s="194"/>
-      <c r="W8" s="194"/>
-      <c r="X8" s="194"/>
-      <c r="Y8" s="197"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="195"/>
+      <c r="P8" s="195"/>
+      <c r="Q8" s="195"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="195"/>
+      <c r="U8" s="195"/>
+      <c r="V8" s="195"/>
+      <c r="W8" s="195"/>
+      <c r="X8" s="195"/>
+      <c r="Y8" s="196"/>
     </row>
     <row r="9" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="198"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="199"/>
-      <c r="K9" s="199"/>
-      <c r="L9" s="199"/>
-      <c r="M9" s="199"/>
-      <c r="N9" s="199"/>
-      <c r="O9" s="199"/>
-      <c r="P9" s="199"/>
-      <c r="Q9" s="199"/>
-      <c r="R9" s="199"/>
-      <c r="S9" s="199"/>
-      <c r="T9" s="199"/>
-      <c r="U9" s="199"/>
-      <c r="V9" s="199"/>
-      <c r="W9" s="199"/>
-      <c r="X9" s="199"/>
-      <c r="Y9" s="200"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="198"/>
+      <c r="P9" s="198"/>
+      <c r="Q9" s="198"/>
+      <c r="R9" s="198"/>
+      <c r="S9" s="198"/>
+      <c r="T9" s="198"/>
+      <c r="U9" s="198"/>
+      <c r="V9" s="198"/>
+      <c r="W9" s="198"/>
+      <c r="X9" s="198"/>
+      <c r="Y9" s="199"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
@@ -19051,19 +20069,19 @@
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="188" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="174"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="188"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B15" s="75" t="s">
@@ -19114,31 +20132,31 @@
         <f>D16+18</f>
         <v>33</v>
       </c>
-      <c r="F16" s="106">
+      <c r="F16" s="105">
         <f t="shared" ref="F16:L16" si="0">E16+18</f>
         <v>51</v>
       </c>
-      <c r="G16" s="106">
+      <c r="G16" s="105">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="H16" s="106">
+      <c r="H16" s="105">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="I16" s="106">
+      <c r="I16" s="105">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="J16" s="106">
+      <c r="J16" s="105">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="K16" s="106">
+      <c r="K16" s="105">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="L16" s="106">
+      <c r="L16" s="105">
         <f t="shared" si="0"/>
         <v>159</v>
       </c>
@@ -19152,39 +20170,39 @@
         <f>L16+18</f>
         <v>177</v>
       </c>
-      <c r="D17" s="106">
+      <c r="D17" s="105">
         <f>C17+18</f>
         <v>195</v>
       </c>
-      <c r="E17" s="106">
+      <c r="E17" s="105">
         <f t="shared" ref="E17:L17" si="1">D17+18</f>
         <v>213</v>
       </c>
-      <c r="F17" s="106">
+      <c r="F17" s="105">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="G17" s="106">
+      <c r="G17" s="105">
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
-      <c r="H17" s="106">
+      <c r="H17" s="105">
         <f t="shared" si="1"/>
         <v>267</v>
       </c>
-      <c r="I17" s="106">
+      <c r="I17" s="105">
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="J17" s="106">
+      <c r="J17" s="105">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="K17" s="106">
+      <c r="K17" s="105">
         <f t="shared" si="1"/>
         <v>321</v>
       </c>
-      <c r="L17" s="106">
+      <c r="L17" s="105">
         <f t="shared" si="1"/>
         <v>339</v>
       </c>
@@ -19194,43 +20212,43 @@
       <c r="B18" s="40">
         <v>2</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="105">
         <f t="shared" ref="C18:C25" si="2">L17+18</f>
         <v>357</v>
       </c>
-      <c r="D18" s="106">
+      <c r="D18" s="105">
         <f t="shared" ref="D18:L18" si="3">C18+18</f>
         <v>375</v>
       </c>
-      <c r="E18" s="106">
+      <c r="E18" s="105">
         <f t="shared" si="3"/>
         <v>393</v>
       </c>
-      <c r="F18" s="106">
+      <c r="F18" s="105">
         <f t="shared" si="3"/>
         <v>411</v>
       </c>
-      <c r="G18" s="106">
+      <c r="G18" s="105">
         <f t="shared" si="3"/>
         <v>429</v>
       </c>
-      <c r="H18" s="106">
+      <c r="H18" s="105">
         <f t="shared" si="3"/>
         <v>447</v>
       </c>
-      <c r="I18" s="106">
+      <c r="I18" s="105">
         <f t="shared" si="3"/>
         <v>465</v>
       </c>
-      <c r="J18" s="106">
+      <c r="J18" s="105">
         <f t="shared" si="3"/>
         <v>483</v>
       </c>
-      <c r="K18" s="106">
+      <c r="K18" s="105">
         <f t="shared" si="3"/>
         <v>501</v>
       </c>
-      <c r="L18" s="106">
+      <c r="L18" s="105">
         <f t="shared" si="3"/>
         <v>519</v>
       </c>
@@ -19240,43 +20258,43 @@
       <c r="B19" s="40">
         <v>3</v>
       </c>
-      <c r="C19" s="106">
+      <c r="C19" s="105">
         <f t="shared" si="2"/>
         <v>537</v>
       </c>
-      <c r="D19" s="106">
+      <c r="D19" s="105">
         <f t="shared" ref="D19:L19" si="4">C19+18</f>
         <v>555</v>
       </c>
-      <c r="E19" s="106">
+      <c r="E19" s="105">
         <f t="shared" si="4"/>
         <v>573</v>
       </c>
-      <c r="F19" s="106">
+      <c r="F19" s="105">
         <f t="shared" si="4"/>
         <v>591</v>
       </c>
-      <c r="G19" s="106">
+      <c r="G19" s="105">
         <f t="shared" si="4"/>
         <v>609</v>
       </c>
-      <c r="H19" s="106">
+      <c r="H19" s="105">
         <f t="shared" si="4"/>
         <v>627</v>
       </c>
-      <c r="I19" s="106">
+      <c r="I19" s="105">
         <f t="shared" si="4"/>
         <v>645</v>
       </c>
-      <c r="J19" s="106">
+      <c r="J19" s="105">
         <f t="shared" si="4"/>
         <v>663</v>
       </c>
-      <c r="K19" s="106">
+      <c r="K19" s="105">
         <f t="shared" si="4"/>
         <v>681</v>
       </c>
-      <c r="L19" s="106">
+      <c r="L19" s="105">
         <f t="shared" si="4"/>
         <v>699</v>
       </c>
@@ -19286,43 +20304,43 @@
       <c r="B20" s="40">
         <v>4</v>
       </c>
-      <c r="C20" s="106">
+      <c r="C20" s="105">
         <f t="shared" si="2"/>
         <v>717</v>
       </c>
-      <c r="D20" s="106">
+      <c r="D20" s="105">
         <f t="shared" ref="D20:L20" si="5">C20+18</f>
         <v>735</v>
       </c>
-      <c r="E20" s="106">
+      <c r="E20" s="105">
         <f t="shared" si="5"/>
         <v>753</v>
       </c>
-      <c r="F20" s="106">
+      <c r="F20" s="105">
         <f t="shared" si="5"/>
         <v>771</v>
       </c>
-      <c r="G20" s="106">
+      <c r="G20" s="105">
         <f t="shared" si="5"/>
         <v>789</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="105">
         <f t="shared" si="5"/>
         <v>807</v>
       </c>
-      <c r="I20" s="106">
+      <c r="I20" s="105">
         <f t="shared" si="5"/>
         <v>825</v>
       </c>
-      <c r="J20" s="106">
+      <c r="J20" s="105">
         <f t="shared" si="5"/>
         <v>843</v>
       </c>
-      <c r="K20" s="106">
+      <c r="K20" s="105">
         <f t="shared" si="5"/>
         <v>861</v>
       </c>
-      <c r="L20" s="106">
+      <c r="L20" s="105">
         <f t="shared" si="5"/>
         <v>879</v>
       </c>
@@ -19332,43 +20350,43 @@
       <c r="B21" s="40">
         <v>5</v>
       </c>
-      <c r="C21" s="106">
+      <c r="C21" s="105">
         <f t="shared" si="2"/>
         <v>897</v>
       </c>
-      <c r="D21" s="106">
+      <c r="D21" s="105">
         <f t="shared" ref="D21:L21" si="6">C21+18</f>
         <v>915</v>
       </c>
-      <c r="E21" s="106">
+      <c r="E21" s="105">
         <f t="shared" si="6"/>
         <v>933</v>
       </c>
-      <c r="F21" s="106">
+      <c r="F21" s="105">
         <f t="shared" si="6"/>
         <v>951</v>
       </c>
-      <c r="G21" s="106">
+      <c r="G21" s="105">
         <f t="shared" si="6"/>
         <v>969</v>
       </c>
-      <c r="H21" s="106">
+      <c r="H21" s="105">
         <f t="shared" si="6"/>
         <v>987</v>
       </c>
-      <c r="I21" s="106">
+      <c r="I21" s="105">
         <f t="shared" si="6"/>
         <v>1005</v>
       </c>
-      <c r="J21" s="106">
+      <c r="J21" s="105">
         <f t="shared" si="6"/>
         <v>1023</v>
       </c>
-      <c r="K21" s="106">
+      <c r="K21" s="105">
         <f t="shared" si="6"/>
         <v>1041</v>
       </c>
-      <c r="L21" s="106">
+      <c r="L21" s="105">
         <f t="shared" si="6"/>
         <v>1059</v>
       </c>
@@ -19378,43 +20396,43 @@
       <c r="B22" s="40">
         <v>6</v>
       </c>
-      <c r="C22" s="106">
+      <c r="C22" s="105">
         <f t="shared" si="2"/>
         <v>1077</v>
       </c>
-      <c r="D22" s="106">
+      <c r="D22" s="105">
         <f t="shared" ref="D22:L22" si="7">C22+18</f>
         <v>1095</v>
       </c>
-      <c r="E22" s="106">
+      <c r="E22" s="105">
         <f t="shared" si="7"/>
         <v>1113</v>
       </c>
-      <c r="F22" s="106">
+      <c r="F22" s="105">
         <f t="shared" si="7"/>
         <v>1131</v>
       </c>
-      <c r="G22" s="106">
+      <c r="G22" s="105">
         <f t="shared" si="7"/>
         <v>1149</v>
       </c>
-      <c r="H22" s="106">
+      <c r="H22" s="105">
         <f t="shared" si="7"/>
         <v>1167</v>
       </c>
-      <c r="I22" s="106">
+      <c r="I22" s="105">
         <f t="shared" si="7"/>
         <v>1185</v>
       </c>
-      <c r="J22" s="106">
+      <c r="J22" s="105">
         <f t="shared" si="7"/>
         <v>1203</v>
       </c>
-      <c r="K22" s="106">
+      <c r="K22" s="105">
         <f t="shared" si="7"/>
         <v>1221</v>
       </c>
-      <c r="L22" s="106">
+      <c r="L22" s="105">
         <f t="shared" si="7"/>
         <v>1239</v>
       </c>
@@ -19424,43 +20442,43 @@
       <c r="B23" s="40">
         <v>7</v>
       </c>
-      <c r="C23" s="106">
+      <c r="C23" s="105">
         <f t="shared" si="2"/>
         <v>1257</v>
       </c>
-      <c r="D23" s="106">
+      <c r="D23" s="105">
         <f t="shared" ref="D23:L23" si="8">C23+18</f>
         <v>1275</v>
       </c>
-      <c r="E23" s="106">
+      <c r="E23" s="105">
         <f t="shared" si="8"/>
         <v>1293</v>
       </c>
-      <c r="F23" s="106">
+      <c r="F23" s="105">
         <f t="shared" si="8"/>
         <v>1311</v>
       </c>
-      <c r="G23" s="106">
+      <c r="G23" s="105">
         <f t="shared" si="8"/>
         <v>1329</v>
       </c>
-      <c r="H23" s="106">
+      <c r="H23" s="105">
         <f t="shared" si="8"/>
         <v>1347</v>
       </c>
-      <c r="I23" s="106">
+      <c r="I23" s="105">
         <f t="shared" si="8"/>
         <v>1365</v>
       </c>
-      <c r="J23" s="106">
+      <c r="J23" s="105">
         <f t="shared" si="8"/>
         <v>1383</v>
       </c>
-      <c r="K23" s="106">
+      <c r="K23" s="105">
         <f t="shared" si="8"/>
         <v>1401</v>
       </c>
-      <c r="L23" s="106">
+      <c r="L23" s="105">
         <f t="shared" si="8"/>
         <v>1419</v>
       </c>
@@ -19470,43 +20488,43 @@
       <c r="B24" s="40">
         <v>8</v>
       </c>
-      <c r="C24" s="106">
+      <c r="C24" s="105">
         <f t="shared" si="2"/>
         <v>1437</v>
       </c>
-      <c r="D24" s="106">
+      <c r="D24" s="105">
         <f t="shared" ref="D24:L24" si="9">C24+18</f>
         <v>1455</v>
       </c>
-      <c r="E24" s="106">
+      <c r="E24" s="105">
         <f t="shared" si="9"/>
         <v>1473</v>
       </c>
-      <c r="F24" s="106">
+      <c r="F24" s="105">
         <f t="shared" si="9"/>
         <v>1491</v>
       </c>
-      <c r="G24" s="106">
+      <c r="G24" s="105">
         <f t="shared" si="9"/>
         <v>1509</v>
       </c>
-      <c r="H24" s="106">
+      <c r="H24" s="105">
         <f t="shared" si="9"/>
         <v>1527</v>
       </c>
-      <c r="I24" s="106">
+      <c r="I24" s="105">
         <f t="shared" si="9"/>
         <v>1545</v>
       </c>
-      <c r="J24" s="106">
+      <c r="J24" s="105">
         <f t="shared" si="9"/>
         <v>1563</v>
       </c>
-      <c r="K24" s="106">
+      <c r="K24" s="105">
         <f t="shared" si="9"/>
         <v>1581</v>
       </c>
-      <c r="L24" s="106">
+      <c r="L24" s="105">
         <f t="shared" si="9"/>
         <v>1599</v>
       </c>
@@ -19516,43 +20534,43 @@
       <c r="B25" s="40">
         <v>9</v>
       </c>
-      <c r="C25" s="106">
+      <c r="C25" s="105">
         <f t="shared" si="2"/>
         <v>1617</v>
       </c>
-      <c r="D25" s="106">
+      <c r="D25" s="105">
         <f t="shared" ref="D25:L25" si="10">C25+18</f>
         <v>1635</v>
       </c>
-      <c r="E25" s="106">
+      <c r="E25" s="105">
         <f t="shared" si="10"/>
         <v>1653</v>
       </c>
-      <c r="F25" s="106">
+      <c r="F25" s="105">
         <f t="shared" si="10"/>
         <v>1671</v>
       </c>
-      <c r="G25" s="106">
+      <c r="G25" s="105">
         <f t="shared" si="10"/>
         <v>1689</v>
       </c>
-      <c r="H25" s="106">
+      <c r="H25" s="105">
         <f t="shared" si="10"/>
         <v>1707</v>
       </c>
-      <c r="I25" s="106">
+      <c r="I25" s="105">
         <f t="shared" si="10"/>
         <v>1725</v>
       </c>
-      <c r="J25" s="106">
+      <c r="J25" s="105">
         <f t="shared" si="10"/>
         <v>1743</v>
       </c>
-      <c r="K25" s="106">
+      <c r="K25" s="105">
         <f t="shared" si="10"/>
         <v>1761</v>
       </c>
-      <c r="L25" s="106">
+      <c r="L25" s="105">
         <f t="shared" si="10"/>
         <v>1779</v>
       </c>
@@ -19562,7 +20580,7 @@
       <c r="B26" s="40">
         <v>10</v>
       </c>
-      <c r="C26" s="106">
+      <c r="C26" s="105">
         <f>L25+18</f>
         <v>1797</v>
       </c>
@@ -19599,21 +20617,21 @@
       <c r="B27" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="175" t="s">
+      <c r="C27" s="189" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="177">
+      <c r="D27" s="190"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="191">
         <f>SUM(C16:L26)</f>
         <v>90600</v>
       </c>
-      <c r="H27" s="177"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="177"/>
-      <c r="K27" s="177"/>
-      <c r="L27" s="177"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="191"/>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.3">
       <c r="AF28" s="2" t="s">
